--- a/clase 16 - Output data/mi_df_completo.xlsx
+++ b/clase 16 - Output data/mi_df_completo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="361">
   <si>
     <t>artist</t>
   </si>
@@ -34,6 +34,249 @@
     <t>Phillips, Esq Tom</t>
   </si>
   <si>
+    <t>Disler, Martin</t>
+  </si>
+  <si>
+    <t>Brus, Günter</t>
+  </si>
+  <si>
+    <t>Fabro, Luciano</t>
+  </si>
+  <si>
+    <t>Baselitz, Georg</t>
+  </si>
+  <si>
+    <t>Guston, Philip</t>
+  </si>
+  <si>
+    <t>Beuys, Joseph</t>
+  </si>
+  <si>
+    <t>Lattanzi, Luciano</t>
+  </si>
+  <si>
+    <t>Pomodoro, Gio</t>
+  </si>
+  <si>
+    <t>Cuixart, Modestos</t>
+  </si>
+  <si>
+    <t>Art &amp; Language (Michael Baldwin, born 1945; Mel Ramsden, born 1944)</t>
+  </si>
+  <si>
+    <t>Bird, John</t>
+  </si>
+  <si>
+    <t>Blake, John</t>
+  </si>
+  <si>
+    <t>Downsbrough, Peter</t>
+  </si>
+  <si>
+    <t>Grayson, Roy</t>
+  </si>
+  <si>
+    <t>Herring, Ed</t>
+  </si>
+  <si>
+    <t>London Gallery</t>
+  </si>
+  <si>
+    <t>Murphy, John</t>
+  </si>
+  <si>
+    <t>Park, Alistair</t>
+  </si>
+  <si>
+    <t>Stezaker, John</t>
+  </si>
+  <si>
+    <t>Wentworth, Richard</t>
+  </si>
+  <si>
+    <t>Frohner, Adolf</t>
+  </si>
+  <si>
+    <t>Illes, Arpad</t>
+  </si>
+  <si>
+    <t>Kunkel, Don</t>
+  </si>
+  <si>
+    <t>Laabs, Hans</t>
+  </si>
+  <si>
+    <t>Nash, John</t>
+  </si>
+  <si>
+    <t>Benjamin, Anthony</t>
+  </si>
+  <si>
+    <t>Hamilton Finlay, Ian</t>
+  </si>
+  <si>
+    <t>Mordmüller, Rainer G</t>
+  </si>
+  <si>
+    <t>Maccari, Mino</t>
+  </si>
+  <si>
+    <t>Valoch, Jiri</t>
+  </si>
+  <si>
+    <t>Gill, Eric</t>
+  </si>
+  <si>
+    <t>Palmer, Roger</t>
+  </si>
+  <si>
+    <t>Abrahams, Ivor</t>
+  </si>
+  <si>
+    <t>Dine, Jim</t>
+  </si>
+  <si>
+    <t>Nicholson, Sir William</t>
+  </si>
+  <si>
+    <t>Fry, Roger</t>
+  </si>
+  <si>
+    <t>Schneider, Gerard</t>
+  </si>
+  <si>
+    <t>Thomkins, André</t>
+  </si>
+  <si>
+    <t>Rainer, Arnulf</t>
+  </si>
+  <si>
+    <t>King, Ronald</t>
+  </si>
+  <si>
+    <t>Hayter, Stanley William</t>
+  </si>
+  <si>
+    <t>Rocamora, Jaume</t>
+  </si>
+  <si>
+    <t>Wunderlich, Paul</t>
+  </si>
+  <si>
+    <t>Cutts, Simon</t>
+  </si>
+  <si>
+    <t>Pissarro, Lucien</t>
+  </si>
+  <si>
+    <t>Ackroyd, Norman</t>
+  </si>
+  <si>
+    <t>Ayrton, Michael</t>
+  </si>
+  <si>
+    <t>Baumeister, Willi</t>
+  </si>
+  <si>
+    <t>Irvin, Albert</t>
+  </si>
+  <si>
+    <t>Götz, Professor Karl-Otto</t>
+  </si>
+  <si>
+    <t>Le Parc, Julio</t>
+  </si>
+  <si>
+    <t>Lindström, Bengt</t>
+  </si>
+  <si>
+    <t>Soulages, Pierre</t>
+  </si>
+  <si>
+    <t>Vasarely, Victor</t>
+  </si>
+  <si>
+    <t>Benrath, Frédéric</t>
+  </si>
+  <si>
+    <t>Manessier, Alfred</t>
+  </si>
+  <si>
+    <t>Appel, Karel</t>
+  </si>
+  <si>
+    <t>Braque, Georges</t>
+  </si>
+  <si>
+    <t>House, Gordon</t>
+  </si>
+  <si>
+    <t>Jones, Allen</t>
+  </si>
+  <si>
+    <t>Paolozzi, Sir Eduardo</t>
+  </si>
+  <si>
+    <t>Kokoschka, Oskar</t>
+  </si>
+  <si>
+    <t>Pasmore, Victor</t>
+  </si>
+  <si>
+    <t>Piper, John</t>
+  </si>
+  <si>
+    <t>Tilson, Joe</t>
+  </si>
+  <si>
+    <t>Tyson, Ian</t>
+  </si>
+  <si>
+    <t>Winner, Gerd</t>
+  </si>
+  <si>
+    <t>Trevelyan, Julian</t>
+  </si>
+  <si>
+    <t>Hodgkin, Howard</t>
+  </si>
+  <si>
+    <t>Loker, John</t>
+  </si>
+  <si>
+    <t>Salt, John</t>
+  </si>
+  <si>
+    <t>Sutherland, Graham, OM</t>
+  </si>
+  <si>
+    <t>Stephenson, Ian</t>
+  </si>
+  <si>
+    <t>Collins, Cecil</t>
+  </si>
+  <si>
+    <t>Tamayo, Rufino</t>
+  </si>
+  <si>
+    <t>Blake, Peter</t>
+  </si>
+  <si>
+    <t>Spencer, Sir Stanley</t>
+  </si>
+  <si>
+    <t>Rothenstein, Sir William</t>
+  </si>
+  <si>
+    <t>Neiland, Brendan</t>
+  </si>
+  <si>
+    <t>Matisse, Henri</t>
+  </si>
+  <si>
+    <t>Nevinson, Christopher Richard Wynne</t>
+  </si>
+  <si>
     <t>[no title]</t>
   </si>
   <si>
@@ -56,6 +299,804 @@
   </si>
   <si>
     <t>[colophon]</t>
+  </si>
+  <si>
+    <t>Great Fear of the Earth I</t>
+  </si>
+  <si>
+    <t>Great Fear of the Earth II</t>
+  </si>
+  <si>
+    <t>Great Fear of the Earth III</t>
+  </si>
+  <si>
+    <t>Every Order is Contemporaneous of Every Other Order: Four Ways of Examining the Façade of the SS. Redentore in Venice</t>
+  </si>
+  <si>
+    <t>Drummer</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Untitled [from the book ‘Madrid Codex’]</t>
+  </si>
+  <si>
+    <t>[title not known: from ‘Punctualizzazioni a uso Privato’]</t>
+  </si>
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Ten Postcards</t>
+  </si>
+  <si>
+    <t>I.I.</t>
+  </si>
+  <si>
+    <t>1. 2 &amp; 1. 3</t>
+  </si>
+  <si>
+    <t>1. 4</t>
+  </si>
+  <si>
+    <t>1. 5</t>
+  </si>
+  <si>
+    <t>1. 6</t>
+  </si>
+  <si>
+    <t>7 Kölner Kunstmarkt</t>
+  </si>
+  <si>
+    <t>1. 8</t>
+  </si>
+  <si>
+    <t>1. 9</t>
+  </si>
+  <si>
+    <t>1. 10 and 1. 11</t>
+  </si>
+  <si>
+    <t>1. 12</t>
+  </si>
+  <si>
+    <t>Looking Up to the Woman</t>
+  </si>
+  <si>
+    <t>Jonah and the Whale</t>
+  </si>
+  <si>
+    <t>Cyclamen Periscum</t>
+  </si>
+  <si>
+    <t>Epiphyllum in Flower</t>
+  </si>
+  <si>
+    <t>A Cottage in Gloucestershire</t>
+  </si>
+  <si>
+    <t>Threshing</t>
+  </si>
+  <si>
+    <t>Frontispiece for the Book of the Tree</t>
+  </si>
+  <si>
+    <t>The Fisherman</t>
+  </si>
+  <si>
+    <t>Drifting Blue Edge</t>
+  </si>
+  <si>
+    <t>Porphyry [collaboration with Ron Costley]</t>
+  </si>
+  <si>
+    <t>Giorgio Morandi</t>
+  </si>
+  <si>
+    <t>Do It Yourself I - Signs</t>
+  </si>
+  <si>
+    <t>Do It Yourself II - Dialogues</t>
+  </si>
+  <si>
+    <t>Study of Identification</t>
+  </si>
+  <si>
+    <t>Symmetrical Concept</t>
+  </si>
+  <si>
+    <t>Nativity with Midwife</t>
+  </si>
+  <si>
+    <t>Slaughter of the Innocents</t>
+  </si>
+  <si>
+    <t>Calvary, Five Stalks of Leaves, and Ship</t>
+  </si>
+  <si>
+    <t>Crucifix, Chalice &amp; Host</t>
+  </si>
+  <si>
+    <t>Dumb-Driven Cattle</t>
+  </si>
+  <si>
+    <t>Hog and Wheatsheaf</t>
+  </si>
+  <si>
+    <t>The Purchaser</t>
+  </si>
+  <si>
+    <t>Adeste Fideles, Three Kings, The Manger, Cantet Nunc Io, Madonna &amp; Child with Chalice</t>
+  </si>
+  <si>
+    <t>Animals All</t>
+  </si>
+  <si>
+    <t>Christmas Gifts: Daylight, and Christmas Gifts: Dawn</t>
+  </si>
+  <si>
+    <t>Initial S with Church, Chalice &amp; Host with Û &amp; A, Gravestone with Angel, Semi-Circular Device, and Circular Device</t>
+  </si>
+  <si>
+    <t>Madonna and Child with Angel</t>
+  </si>
+  <si>
+    <t>Jesus is Condemned to Death</t>
+  </si>
+  <si>
+    <t>Jesus Receives His Cross</t>
+  </si>
+  <si>
+    <t>Jesus Falls the First Time</t>
+  </si>
+  <si>
+    <t>Jesus Meets His Mother</t>
+  </si>
+  <si>
+    <t>Simon of Cyrene Helps Jesus to Carry the Cross</t>
+  </si>
+  <si>
+    <t>Jesus Meets Veronica</t>
+  </si>
+  <si>
+    <t>Jesus Falls the Second Time</t>
+  </si>
+  <si>
+    <t>Jesus Speaks to the Women of Jerusalem</t>
+  </si>
+  <si>
+    <t>Jesus Falls the Third Time</t>
+  </si>
+  <si>
+    <t>Jesus is Stripped</t>
+  </si>
+  <si>
+    <t>Jesus is Nailed to the Cross</t>
+  </si>
+  <si>
+    <t>Jesus Dies Upon the Cross</t>
+  </si>
+  <si>
+    <t>The Body of Jesus is Taken Down from the Cross</t>
+  </si>
+  <si>
+    <t>The Body of Jesus is Laid in the Tomb</t>
+  </si>
+  <si>
+    <t>Crucifix</t>
+  </si>
+  <si>
+    <t>Epiphany, Palm Sunday, and Adam &amp; Eve</t>
+  </si>
+  <si>
+    <t>The Last Judgement</t>
+  </si>
+  <si>
+    <t>Resurrection</t>
+  </si>
+  <si>
+    <t>Spray of Leaves, Stalk, Initial O with Speedwell, Paschal Lamb, Axe &amp; Block, and Hangman’s Rope</t>
+  </si>
+  <si>
+    <t>Ascension</t>
+  </si>
+  <si>
+    <t>Madonna &amp; Child in Vesica</t>
+  </si>
+  <si>
+    <t>Christ and the Money-Changers</t>
+  </si>
+  <si>
+    <t>Madonna and Child</t>
+  </si>
+  <si>
+    <t>Spoil Bank Crucifix</t>
+  </si>
+  <si>
+    <t>Bookplate: Girl with Deer</t>
+  </si>
+  <si>
+    <t>Hottentot</t>
+  </si>
+  <si>
+    <t>New England Woods</t>
+  </si>
+  <si>
+    <t>Our Lady of Lourdes</t>
+  </si>
+  <si>
+    <t>Dress: 1860</t>
+  </si>
+  <si>
+    <t>Dress: 1920</t>
+  </si>
+  <si>
+    <t>The Lion</t>
+  </si>
+  <si>
+    <t>Bookplate: S. Helena, and Bookplate: S. Angela</t>
+  </si>
+  <si>
+    <t>Christmas Card: Madonna &amp; Child</t>
+  </si>
+  <si>
+    <t>Clare</t>
+  </si>
+  <si>
+    <t>Divine Lovers: I</t>
+  </si>
+  <si>
+    <t>Girl in Bath: I</t>
+  </si>
+  <si>
+    <t>The Plait</t>
+  </si>
+  <si>
+    <t>Actor on Stage</t>
+  </si>
+  <si>
+    <t>Autumn Midnight</t>
+  </si>
+  <si>
+    <t>Girl in Bath: II</t>
+  </si>
+  <si>
+    <t>[title not known]</t>
+  </si>
+  <si>
+    <t>Mother and Child</t>
+  </si>
+  <si>
+    <t>Daily Herald Order of Industrial Heroism</t>
+  </si>
+  <si>
+    <t>Sculpture I, Sculpture II, and Woman’s Head</t>
+  </si>
+  <si>
+    <t>The Tennis Player</t>
+  </si>
+  <si>
+    <t>Toilet</t>
+  </si>
+  <si>
+    <t>Eliz. G.</t>
+  </si>
+  <si>
+    <t>Gordian G.</t>
+  </si>
+  <si>
+    <t>Mrs Williams</t>
+  </si>
+  <si>
+    <t>Naked Girl on Grass</t>
+  </si>
+  <si>
+    <t>Portrait of a Lady</t>
+  </si>
+  <si>
+    <t>Ruth Lowinsky</t>
+  </si>
+  <si>
+    <t>Thomas Edmond Lowinsky</t>
+  </si>
+  <si>
+    <t>Xenia Noelle Lowinsky</t>
+  </si>
+  <si>
+    <t>Girl Sleeping</t>
+  </si>
+  <si>
+    <t>The Harem</t>
+  </si>
+  <si>
+    <t>Ibi Dabo Tibi</t>
+  </si>
+  <si>
+    <t>Madonna and Child, with Children</t>
+  </si>
+  <si>
+    <t>My Love among the Lilies</t>
+  </si>
+  <si>
+    <t>On My Bed by Night</t>
+  </si>
+  <si>
+    <t>Stay Me with Apples</t>
+  </si>
+  <si>
+    <t>Swineherd</t>
+  </si>
+  <si>
+    <t>Beatrice Warde</t>
+  </si>
+  <si>
+    <t>Bookplate</t>
+  </si>
+  <si>
+    <t>Bookplate: S. Anthony</t>
+  </si>
+  <si>
+    <t>The Carrying of the Cross</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Device: S. Thomas’s Hands</t>
+  </si>
+  <si>
+    <t>Earth Waiting</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>Flying Buttress</t>
+  </si>
+  <si>
+    <t>The Good Shepherd</t>
+  </si>
+  <si>
+    <t>Mary Magdalen</t>
+  </si>
+  <si>
+    <t>Miss R. Rothenstein</t>
+  </si>
+  <si>
+    <t>Prior of Caldey</t>
+  </si>
+  <si>
+    <t>Skaters</t>
+  </si>
+  <si>
+    <t>Woman with Balloons</t>
+  </si>
+  <si>
+    <t>Border: Lovers Facing Left, and Border: Lovers</t>
+  </si>
+  <si>
+    <t>Adam &amp; Eve in Heaven</t>
+  </si>
+  <si>
+    <t>Bookplate: Girl with Three Scallops</t>
+  </si>
+  <si>
+    <t>Border: Chaucer &amp; Cupid, and Chaucer Writing</t>
+  </si>
+  <si>
+    <t>Border: Our Lord on Tree</t>
+  </si>
+  <si>
+    <t>Chalice and Host</t>
+  </si>
+  <si>
+    <t>Clothes: For Dignity &amp; Adornment</t>
+  </si>
+  <si>
+    <t>The Soul and the Bridegroom</t>
+  </si>
+  <si>
+    <t>Title Page: Troilus and Criseyde</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Grass Corner</t>
+  </si>
+  <si>
+    <t>Leaves</t>
+  </si>
+  <si>
+    <t>Leaves with Pillar</t>
+  </si>
+  <si>
+    <t>Tarmac Heap</t>
+  </si>
+  <si>
+    <t>Tarmac Strip</t>
+  </si>
+  <si>
+    <t>Untitled [from the book ‘Oxford Gardens: a Sketchbook’ by Ivor Abrahams]</t>
+  </si>
+  <si>
+    <t>Welcome Home Rare Birds</t>
+  </si>
+  <si>
+    <t>The Archbishop of Canterbury</t>
+  </si>
+  <si>
+    <t>Cecil Rhodes</t>
+  </si>
+  <si>
+    <t>H.M. The Queen</t>
+  </si>
+  <si>
+    <t>H.R.H. The Prince of Wales</t>
+  </si>
+  <si>
+    <t>James McNeill Whistler</t>
+  </si>
+  <si>
+    <t>Lord Roberts</t>
+  </si>
+  <si>
+    <t>Prince Bismarck</t>
+  </si>
+  <si>
+    <t>Rudyard Kipling</t>
+  </si>
+  <si>
+    <t>Sarah Bernhardt</t>
+  </si>
+  <si>
+    <t>Sir Henry Hawkins</t>
+  </si>
+  <si>
+    <t>Sir Henry Irving</t>
+  </si>
+  <si>
+    <t>W.E. Gladstone</t>
+  </si>
+  <si>
+    <t>Arles sur Tech</t>
+  </si>
+  <si>
+    <t>Baroque Altar, Perpignon</t>
+  </si>
+  <si>
+    <t>Cluny Museum, Paris</t>
+  </si>
+  <si>
+    <t>Elne</t>
+  </si>
+  <si>
+    <t>Notre Dame, Clermont Ferrand</t>
+  </si>
+  <si>
+    <t>Rock-cut Church, Aubeterre</t>
+  </si>
+  <si>
+    <t>Rock-cut Church, Saint Emilion</t>
+  </si>
+  <si>
+    <t>A Staircase / Narbonne</t>
+  </si>
+  <si>
+    <t>Trinity College Library, Cambridge</t>
+  </si>
+  <si>
+    <t>Untitled from ‘Poèmes d’Eugenio Montale’, Milan</t>
+  </si>
+  <si>
+    <t>Fugger</t>
+  </si>
+  <si>
+    <t>Untitled, from ‘Reste’</t>
+  </si>
+  <si>
+    <t>III the Squire [from the book ‘The Prologue’]</t>
+  </si>
+  <si>
+    <t>Cover Illustration to ‘Tides’ by John Montagu</t>
+  </si>
+  <si>
+    <t>[title not known: from the book ‘Paul Wunderlich’ by Jens Christian Jensen]</t>
+  </si>
+  <si>
+    <t>Winter Fruit</t>
+  </si>
+  <si>
+    <t>Le Curé</t>
+  </si>
+  <si>
+    <t>Le Patissier</t>
+  </si>
+  <si>
+    <t>Jeune fille</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Floréal</t>
+  </si>
+  <si>
+    <t>Portrait de Camille Pissarro</t>
+  </si>
+  <si>
+    <t>Boy and Pine Tree</t>
+  </si>
+  <si>
+    <t>Un Coeur simple</t>
+  </si>
+  <si>
+    <t>Choix de sonnets</t>
+  </si>
+  <si>
+    <t>Geese</t>
+  </si>
+  <si>
+    <t>Boy Breaking a Stick</t>
+  </si>
+  <si>
+    <t>Consultation</t>
+  </si>
+  <si>
+    <t>L’Amour manillé</t>
+  </si>
+  <si>
+    <t>Bookplate and New Year Card</t>
+  </si>
+  <si>
+    <t>Liseuse</t>
+  </si>
+  <si>
+    <t>Women in Roundel</t>
+  </si>
+  <si>
+    <t>New Year Card</t>
+  </si>
+  <si>
+    <t>La Bergère</t>
+  </si>
+  <si>
+    <t>Landscape: Blackpool, Devon</t>
+  </si>
+  <si>
+    <t>Rye</t>
+  </si>
+  <si>
+    <t>Christmas Card</t>
+  </si>
+  <si>
+    <t>Ex Libris Isa Taylor</t>
+  </si>
+  <si>
+    <t>The Avenue at Avington</t>
+  </si>
+  <si>
+    <t>Bearded Head</t>
+  </si>
+  <si>
+    <t>Clown</t>
+  </si>
+  <si>
+    <t>Au Cirque</t>
+  </si>
+  <si>
+    <t>Untitled (Suspended Lines I)</t>
+  </si>
+  <si>
+    <t>Alba</t>
+  </si>
+  <si>
+    <t>Red Man</t>
+  </si>
+  <si>
+    <t>Early Spring</t>
+  </si>
+  <si>
+    <t>Contentment</t>
+  </si>
+  <si>
+    <t>Woman with Mandolin</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>iv</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>XII</t>
+  </si>
+  <si>
+    <t>XIII</t>
+  </si>
+  <si>
+    <t>XIV</t>
+  </si>
+  <si>
+    <t>Appel-Calder</t>
+  </si>
+  <si>
+    <t>Ciao Picasso</t>
+  </si>
+  <si>
+    <t>W. 16</t>
+  </si>
+  <si>
+    <t>From Genot to Unimate: Genot</t>
+  </si>
+  <si>
+    <t>Leningrad</t>
+  </si>
+  <si>
+    <t>Early Evening in the Museum of Art</t>
+  </si>
+  <si>
+    <t>Thinking Aloud in the Museum of Art</t>
+  </si>
+  <si>
+    <t>Shifts (Gate)</t>
+  </si>
+  <si>
+    <t>Pink Trailer</t>
+  </si>
+  <si>
+    <t>Portrait of Somerset Maugham I</t>
+  </si>
+  <si>
+    <t>53/540</t>
+  </si>
+  <si>
+    <t>143/540</t>
+  </si>
+  <si>
+    <t>233/540</t>
+  </si>
+  <si>
+    <t>323/540</t>
+  </si>
+  <si>
+    <t>413/540</t>
+  </si>
+  <si>
+    <t>503/540</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>The Artist’s Wife Seated in a Tree</t>
+  </si>
+  <si>
+    <t>The Fool</t>
+  </si>
+  <si>
+    <t>Fool with a Bird</t>
+  </si>
+  <si>
+    <t>Temple of the Sun</t>
+  </si>
+  <si>
+    <t>The Eternal Sun</t>
+  </si>
+  <si>
+    <t>The Fruit of the Sun</t>
+  </si>
+  <si>
+    <t>Sunrise</t>
+  </si>
+  <si>
+    <t>Angel and Woman</t>
+  </si>
+  <si>
+    <t>Dance Landscape</t>
+  </si>
+  <si>
+    <t>Fool and Woman</t>
+  </si>
+  <si>
+    <t>Head of a Woman</t>
+  </si>
+  <si>
+    <t>Illustration to the cover of ‘Face Dances’</t>
+  </si>
+  <si>
+    <t>Retrieving a Ball</t>
+  </si>
+  <si>
+    <t>Mr Frederick Pollock [Part I]</t>
+  </si>
+  <si>
+    <t>Mr Thomas Hardy [Part I]</t>
+  </si>
+  <si>
+    <t>The Right Rev Dr Creighton [Part III]</t>
+  </si>
+  <si>
+    <t>The Marchioness of Granby [Part III]</t>
+  </si>
+  <si>
+    <t>Mr Robert Bridges [Part VII]</t>
+  </si>
+  <si>
+    <t>Professor Alphonse Legros [Part VII]</t>
+  </si>
+  <si>
+    <t>Professor Charles Villiers Stanford [Part VIII]</t>
+  </si>
+  <si>
+    <t>Mr George Bernard Shaw [Part VIII]</t>
+  </si>
+  <si>
+    <t>Mrs Meynell [Part IX]</t>
+  </si>
+  <si>
+    <t>Mr Charles Ricketts and Mr Charles Hazelwood Shannon [Part IX]</t>
+  </si>
+  <si>
+    <t>Sir Frances Seymour Haden [Part II]</t>
+  </si>
+  <si>
+    <t>Mr William Archer [Part II]</t>
+  </si>
+  <si>
+    <t>Tolmer Square</t>
+  </si>
+  <si>
+    <t>The Martyrdom of St Saturus</t>
+  </si>
+  <si>
+    <t>The Triumph of St Perpetua</t>
+  </si>
+  <si>
+    <t>Little Aurore</t>
+  </si>
+  <si>
+    <t>Survivors at Arras</t>
   </si>
 </sst>
 </file>
@@ -413,7 +1454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +1479,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>1937</v>
@@ -452,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>1937</v>
@@ -466,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>1937</v>
@@ -480,7 +1521,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>1937</v>
@@ -494,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>1937</v>
@@ -508,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>1937</v>
@@ -522,7 +1563,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D8">
         <v>1937</v>
@@ -536,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>1937</v>
@@ -550,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D10">
         <v>1937</v>
@@ -564,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>1937</v>
@@ -578,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>1937</v>
@@ -592,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D13">
         <v>1937</v>
@@ -606,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D14">
         <v>1937</v>
@@ -620,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D15">
         <v>1937</v>
@@ -634,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D16">
         <v>1937</v>
@@ -648,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D17">
         <v>1937</v>
@@ -662,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D18">
         <v>1937</v>
@@ -676,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D19">
         <v>1937</v>
@@ -690,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>1937</v>
@@ -704,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D21">
         <v>1937</v>
@@ -718,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D22">
         <v>1937</v>
@@ -732,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D23">
         <v>1937</v>
@@ -746,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D24">
         <v>1937</v>
@@ -760,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D25">
         <v>1937</v>
@@ -774,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D26">
         <v>1937</v>
@@ -788,7 +1829,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D27">
         <v>1937</v>
@@ -802,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D28">
         <v>1937</v>
@@ -816,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D29">
         <v>1937</v>
@@ -830,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D30">
         <v>1937</v>
@@ -844,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D31">
         <v>1937</v>
@@ -858,7 +1899,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D32">
         <v>1952</v>
@@ -872,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="D33">
         <v>1952</v>
@@ -886,7 +1927,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>1954</v>
@@ -900,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="D35">
         <v>1954</v>
@@ -914,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D36">
         <v>1956</v>
@@ -928,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="D37">
         <v>1979</v>
@@ -942,7 +1983,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D38">
         <v>1979</v>
@@ -956,7 +1997,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D39">
         <v>1980</v>
@@ -970,10 +2011,7004 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D40">
         <v>1979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>50019</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>50020</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>50021</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>50022</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>50023</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>50024</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>50025</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>50026</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>50027</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>50028</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>50029</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50030</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>50031</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>50032</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>50033</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>50034</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>50035</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>50036</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>50037</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>50038</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>50039</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>50040</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>50041</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>50042</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>50043</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>50044</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>50045</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>50046</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>50047</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>50048</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>50049</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>50050</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>50051</v>
+      </c>
+      <c r="B73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>50052</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>50053</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>50054</v>
+      </c>
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>50055</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>50056</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>50057</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>50058</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>50059</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>50060</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>50061</v>
+      </c>
+      <c r="B83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>50062</v>
+      </c>
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>50063</v>
+      </c>
+      <c r="B85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>50064</v>
+      </c>
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>50065</v>
+      </c>
+      <c r="B87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>50066</v>
+      </c>
+      <c r="B88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>50067</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>50068</v>
+      </c>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>50069</v>
+      </c>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>50070</v>
+      </c>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" t="s">
+        <v>136</v>
+      </c>
+      <c r="D92">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>50071</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>50072</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>50073</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>50074</v>
+      </c>
+      <c r="B96" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>50075</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" t="s">
+        <v>141</v>
+      </c>
+      <c r="D97">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>50076</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>50077</v>
+      </c>
+      <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>50078</v>
+      </c>
+      <c r="B100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>50079</v>
+      </c>
+      <c r="B101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" t="s">
+        <v>145</v>
+      </c>
+      <c r="D101">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>50080</v>
+      </c>
+      <c r="B102" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" t="s">
+        <v>146</v>
+      </c>
+      <c r="D102">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>50081</v>
+      </c>
+      <c r="B103" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>50082</v>
+      </c>
+      <c r="B104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" t="s">
+        <v>148</v>
+      </c>
+      <c r="D104">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>50083</v>
+      </c>
+      <c r="B105" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>50084</v>
+      </c>
+      <c r="B106" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>50085</v>
+      </c>
+      <c r="B107" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" t="s">
+        <v>151</v>
+      </c>
+      <c r="D107">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>50086</v>
+      </c>
+      <c r="B108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>50087</v>
+      </c>
+      <c r="B109" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" t="s">
+        <v>153</v>
+      </c>
+      <c r="D109">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>50088</v>
+      </c>
+      <c r="B110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C110" t="s">
+        <v>154</v>
+      </c>
+      <c r="D110">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>50089</v>
+      </c>
+      <c r="B111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111" t="s">
+        <v>155</v>
+      </c>
+      <c r="D111">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>50090</v>
+      </c>
+      <c r="B112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>50091</v>
+      </c>
+      <c r="B113" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>50092</v>
+      </c>
+      <c r="B114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" t="s">
+        <v>158</v>
+      </c>
+      <c r="D114">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>50093</v>
+      </c>
+      <c r="B115" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" t="s">
+        <v>159</v>
+      </c>
+      <c r="D115">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>50094</v>
+      </c>
+      <c r="B116" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" t="s">
+        <v>160</v>
+      </c>
+      <c r="D116">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>50095</v>
+      </c>
+      <c r="B117" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" t="s">
+        <v>161</v>
+      </c>
+      <c r="D117">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>50096</v>
+      </c>
+      <c r="B118" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" t="s">
+        <v>162</v>
+      </c>
+      <c r="D118">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>50097</v>
+      </c>
+      <c r="B119" t="s">
+        <v>36</v>
+      </c>
+      <c r="C119" t="s">
+        <v>163</v>
+      </c>
+      <c r="D119">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>50098</v>
+      </c>
+      <c r="B120" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" t="s">
+        <v>163</v>
+      </c>
+      <c r="D120">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>50099</v>
+      </c>
+      <c r="B121" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" t="s">
+        <v>156</v>
+      </c>
+      <c r="D121">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>50100</v>
+      </c>
+      <c r="B122" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" t="s">
+        <v>164</v>
+      </c>
+      <c r="D122">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>50101</v>
+      </c>
+      <c r="B123" t="s">
+        <v>36</v>
+      </c>
+      <c r="C123" t="s">
+        <v>165</v>
+      </c>
+      <c r="D123">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>50102</v>
+      </c>
+      <c r="B124" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>50103</v>
+      </c>
+      <c r="B125" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125" t="s">
+        <v>167</v>
+      </c>
+      <c r="D125">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>50104</v>
+      </c>
+      <c r="B126" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>50105</v>
+      </c>
+      <c r="B127" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" t="s">
+        <v>169</v>
+      </c>
+      <c r="D127">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>50106</v>
+      </c>
+      <c r="B128" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" t="s">
+        <v>170</v>
+      </c>
+      <c r="D128">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>50107</v>
+      </c>
+      <c r="B129" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129" t="s">
+        <v>171</v>
+      </c>
+      <c r="D129">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>50108</v>
+      </c>
+      <c r="B130" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" t="s">
+        <v>172</v>
+      </c>
+      <c r="D130">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>50109</v>
+      </c>
+      <c r="B131" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" t="s">
+        <v>173</v>
+      </c>
+      <c r="D131">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>50110</v>
+      </c>
+      <c r="B132" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" t="s">
+        <v>174</v>
+      </c>
+      <c r="D132">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>50111</v>
+      </c>
+      <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" t="s">
+        <v>175</v>
+      </c>
+      <c r="D133">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>50112</v>
+      </c>
+      <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" t="s">
+        <v>176</v>
+      </c>
+      <c r="D134">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>50113</v>
+      </c>
+      <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" t="s">
+        <v>177</v>
+      </c>
+      <c r="D135">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>50114</v>
+      </c>
+      <c r="B136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136" t="s">
+        <v>178</v>
+      </c>
+      <c r="D136">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>50115</v>
+      </c>
+      <c r="B137" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" t="s">
+        <v>179</v>
+      </c>
+      <c r="D137">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>50116</v>
+      </c>
+      <c r="B138" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" t="s">
+        <v>180</v>
+      </c>
+      <c r="D138">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>50117</v>
+      </c>
+      <c r="B139" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" t="s">
+        <v>181</v>
+      </c>
+      <c r="D139">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>50118</v>
+      </c>
+      <c r="B140" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" t="s">
+        <v>182</v>
+      </c>
+      <c r="D140">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>50119</v>
+      </c>
+      <c r="B141" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" t="s">
+        <v>183</v>
+      </c>
+      <c r="D141">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>50120</v>
+      </c>
+      <c r="B142" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" t="s">
+        <v>184</v>
+      </c>
+      <c r="D142">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>50121</v>
+      </c>
+      <c r="B143" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143" t="s">
+        <v>185</v>
+      </c>
+      <c r="D143">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>50122</v>
+      </c>
+      <c r="B144" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144" t="s">
+        <v>186</v>
+      </c>
+      <c r="D144">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>50123</v>
+      </c>
+      <c r="B145" t="s">
+        <v>36</v>
+      </c>
+      <c r="C145" t="s">
+        <v>187</v>
+      </c>
+      <c r="D145">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>50124</v>
+      </c>
+      <c r="B146" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146" t="s">
+        <v>188</v>
+      </c>
+      <c r="D146">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>50125</v>
+      </c>
+      <c r="B147" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" t="s">
+        <v>189</v>
+      </c>
+      <c r="D147">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>50126</v>
+      </c>
+      <c r="B148" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148" t="s">
+        <v>164</v>
+      </c>
+      <c r="D148">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>50127</v>
+      </c>
+      <c r="B149" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" t="s">
+        <v>183</v>
+      </c>
+      <c r="D149">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>50128</v>
+      </c>
+      <c r="B150" t="s">
+        <v>36</v>
+      </c>
+      <c r="C150" t="s">
+        <v>190</v>
+      </c>
+      <c r="D150">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>50129</v>
+      </c>
+      <c r="B151" t="s">
+        <v>36</v>
+      </c>
+      <c r="C151" t="s">
+        <v>191</v>
+      </c>
+      <c r="D151">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>50130</v>
+      </c>
+      <c r="B152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" t="s">
+        <v>192</v>
+      </c>
+      <c r="D152">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>50131</v>
+      </c>
+      <c r="B153" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" t="s">
+        <v>193</v>
+      </c>
+      <c r="D153">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>50132</v>
+      </c>
+      <c r="B154" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154" t="s">
+        <v>194</v>
+      </c>
+      <c r="D154">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>50133</v>
+      </c>
+      <c r="B155" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" t="s">
+        <v>195</v>
+      </c>
+      <c r="D155">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>50134</v>
+      </c>
+      <c r="B156" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" t="s">
+        <v>196</v>
+      </c>
+      <c r="D156">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>50135</v>
+      </c>
+      <c r="B157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157" t="s">
+        <v>197</v>
+      </c>
+      <c r="D157">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>50136</v>
+      </c>
+      <c r="B158" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" t="s">
+        <v>198</v>
+      </c>
+      <c r="D158">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>50137</v>
+      </c>
+      <c r="B159" t="s">
+        <v>36</v>
+      </c>
+      <c r="C159" t="s">
+        <v>164</v>
+      </c>
+      <c r="D159">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>50138</v>
+      </c>
+      <c r="B160" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160" t="s">
+        <v>199</v>
+      </c>
+      <c r="D160">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>50139</v>
+      </c>
+      <c r="B161" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" t="s">
+        <v>200</v>
+      </c>
+      <c r="D161">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>50140</v>
+      </c>
+      <c r="B162" t="s">
+        <v>36</v>
+      </c>
+      <c r="C162" t="s">
+        <v>201</v>
+      </c>
+      <c r="D162">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>50141</v>
+      </c>
+      <c r="B163" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" t="s">
+        <v>202</v>
+      </c>
+      <c r="D163">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>50142</v>
+      </c>
+      <c r="B164" t="s">
+        <v>36</v>
+      </c>
+      <c r="C164" t="s">
+        <v>203</v>
+      </c>
+      <c r="D164">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>50143</v>
+      </c>
+      <c r="B165" t="s">
+        <v>36</v>
+      </c>
+      <c r="C165" t="s">
+        <v>204</v>
+      </c>
+      <c r="D165">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>50144</v>
+      </c>
+      <c r="B166" t="s">
+        <v>36</v>
+      </c>
+      <c r="C166" t="s">
+        <v>205</v>
+      </c>
+      <c r="D166">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>50145</v>
+      </c>
+      <c r="B167" t="s">
+        <v>36</v>
+      </c>
+      <c r="C167" t="s">
+        <v>206</v>
+      </c>
+      <c r="D167">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>50146</v>
+      </c>
+      <c r="B168" t="s">
+        <v>36</v>
+      </c>
+      <c r="C168" t="s">
+        <v>207</v>
+      </c>
+      <c r="D168">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>50147</v>
+      </c>
+      <c r="B169" t="s">
+        <v>36</v>
+      </c>
+      <c r="C169" t="s">
+        <v>208</v>
+      </c>
+      <c r="D169">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>50148</v>
+      </c>
+      <c r="B170" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170" t="s">
+        <v>209</v>
+      </c>
+      <c r="D170">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>50149</v>
+      </c>
+      <c r="B171" t="s">
+        <v>36</v>
+      </c>
+      <c r="C171" t="s">
+        <v>210</v>
+      </c>
+      <c r="D171">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>50150</v>
+      </c>
+      <c r="B172" t="s">
+        <v>36</v>
+      </c>
+      <c r="C172" t="s">
+        <v>211</v>
+      </c>
+      <c r="D172">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>50151</v>
+      </c>
+      <c r="B173" t="s">
+        <v>36</v>
+      </c>
+      <c r="C173" t="s">
+        <v>212</v>
+      </c>
+      <c r="D173">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>50152</v>
+      </c>
+      <c r="B174" t="s">
+        <v>36</v>
+      </c>
+      <c r="C174" t="s">
+        <v>213</v>
+      </c>
+      <c r="D174">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>50153</v>
+      </c>
+      <c r="B175" t="s">
+        <v>36</v>
+      </c>
+      <c r="C175" t="s">
+        <v>214</v>
+      </c>
+      <c r="D175">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>50154</v>
+      </c>
+      <c r="B176" t="s">
+        <v>36</v>
+      </c>
+      <c r="C176" t="s">
+        <v>215</v>
+      </c>
+      <c r="D176">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>50155</v>
+      </c>
+      <c r="B177" t="s">
+        <v>36</v>
+      </c>
+      <c r="C177" t="s">
+        <v>216</v>
+      </c>
+      <c r="D177">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>50156</v>
+      </c>
+      <c r="B178" t="s">
+        <v>36</v>
+      </c>
+      <c r="C178" t="s">
+        <v>217</v>
+      </c>
+      <c r="D178">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>50157</v>
+      </c>
+      <c r="B179" t="s">
+        <v>36</v>
+      </c>
+      <c r="C179" t="s">
+        <v>218</v>
+      </c>
+      <c r="D179">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>50158</v>
+      </c>
+      <c r="B180" t="s">
+        <v>36</v>
+      </c>
+      <c r="C180" t="s">
+        <v>219</v>
+      </c>
+      <c r="D180">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>50159</v>
+      </c>
+      <c r="B181" t="s">
+        <v>36</v>
+      </c>
+      <c r="C181" t="s">
+        <v>220</v>
+      </c>
+      <c r="D181">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>50160</v>
+      </c>
+      <c r="B182" t="s">
+        <v>36</v>
+      </c>
+      <c r="C182" t="s">
+        <v>221</v>
+      </c>
+      <c r="D182">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>50161</v>
+      </c>
+      <c r="B183" t="s">
+        <v>36</v>
+      </c>
+      <c r="C183" t="s">
+        <v>222</v>
+      </c>
+      <c r="D183">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>50162</v>
+      </c>
+      <c r="B184" t="s">
+        <v>36</v>
+      </c>
+      <c r="C184" t="s">
+        <v>223</v>
+      </c>
+      <c r="D184">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>50163</v>
+      </c>
+      <c r="B185" t="s">
+        <v>36</v>
+      </c>
+      <c r="C185" t="s">
+        <v>224</v>
+      </c>
+      <c r="D185">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>50164</v>
+      </c>
+      <c r="B186" t="s">
+        <v>36</v>
+      </c>
+      <c r="C186" t="s">
+        <v>225</v>
+      </c>
+      <c r="D186">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>50165</v>
+      </c>
+      <c r="B187" t="s">
+        <v>36</v>
+      </c>
+      <c r="C187" t="s">
+        <v>213</v>
+      </c>
+      <c r="D187">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>50166</v>
+      </c>
+      <c r="B188" t="s">
+        <v>36</v>
+      </c>
+      <c r="C188" t="s">
+        <v>93</v>
+      </c>
+      <c r="D188">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>50167</v>
+      </c>
+      <c r="B189" t="s">
+        <v>36</v>
+      </c>
+      <c r="C189" t="s">
+        <v>226</v>
+      </c>
+      <c r="D189">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>50168</v>
+      </c>
+      <c r="B190" t="s">
+        <v>36</v>
+      </c>
+      <c r="C190" t="s">
+        <v>227</v>
+      </c>
+      <c r="D190">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>50169</v>
+      </c>
+      <c r="B191" t="s">
+        <v>37</v>
+      </c>
+      <c r="C191" t="s">
+        <v>228</v>
+      </c>
+      <c r="D191">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>50170</v>
+      </c>
+      <c r="B192" t="s">
+        <v>37</v>
+      </c>
+      <c r="C192" t="s">
+        <v>229</v>
+      </c>
+      <c r="D192">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>50171</v>
+      </c>
+      <c r="B193" t="s">
+        <v>37</v>
+      </c>
+      <c r="C193" t="s">
+        <v>230</v>
+      </c>
+      <c r="D193">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>50172</v>
+      </c>
+      <c r="B194" t="s">
+        <v>37</v>
+      </c>
+      <c r="C194" t="s">
+        <v>231</v>
+      </c>
+      <c r="D194">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>50173</v>
+      </c>
+      <c r="B195" t="s">
+        <v>37</v>
+      </c>
+      <c r="C195" t="s">
+        <v>232</v>
+      </c>
+      <c r="D195">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>50174</v>
+      </c>
+      <c r="B196" t="s">
+        <v>37</v>
+      </c>
+      <c r="C196" t="s">
+        <v>233</v>
+      </c>
+      <c r="D196">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>50175</v>
+      </c>
+      <c r="B197" t="s">
+        <v>38</v>
+      </c>
+      <c r="C197" t="s">
+        <v>234</v>
+      </c>
+      <c r="D197">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>50176</v>
+      </c>
+      <c r="B198" t="s">
+        <v>39</v>
+      </c>
+      <c r="C198" t="s">
+        <v>235</v>
+      </c>
+      <c r="D198">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>50177</v>
+      </c>
+      <c r="B199" t="s">
+        <v>40</v>
+      </c>
+      <c r="C199" t="s">
+        <v>236</v>
+      </c>
+      <c r="D199">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>50178</v>
+      </c>
+      <c r="B200" t="s">
+        <v>40</v>
+      </c>
+      <c r="C200" t="s">
+        <v>237</v>
+      </c>
+      <c r="D200">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>50179</v>
+      </c>
+      <c r="B201" t="s">
+        <v>40</v>
+      </c>
+      <c r="C201" t="s">
+        <v>238</v>
+      </c>
+      <c r="D201">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>50180</v>
+      </c>
+      <c r="B202" t="s">
+        <v>40</v>
+      </c>
+      <c r="C202" t="s">
+        <v>239</v>
+      </c>
+      <c r="D202">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>50181</v>
+      </c>
+      <c r="B203" t="s">
+        <v>40</v>
+      </c>
+      <c r="C203" t="s">
+        <v>240</v>
+      </c>
+      <c r="D203">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>50182</v>
+      </c>
+      <c r="B204" t="s">
+        <v>40</v>
+      </c>
+      <c r="C204" t="s">
+        <v>241</v>
+      </c>
+      <c r="D204">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>50183</v>
+      </c>
+      <c r="B205" t="s">
+        <v>40</v>
+      </c>
+      <c r="C205" t="s">
+        <v>242</v>
+      </c>
+      <c r="D205">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>50184</v>
+      </c>
+      <c r="B206" t="s">
+        <v>40</v>
+      </c>
+      <c r="C206" t="s">
+        <v>243</v>
+      </c>
+      <c r="D206">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>50185</v>
+      </c>
+      <c r="B207" t="s">
+        <v>40</v>
+      </c>
+      <c r="C207" t="s">
+        <v>244</v>
+      </c>
+      <c r="D207">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>50186</v>
+      </c>
+      <c r="B208" t="s">
+        <v>40</v>
+      </c>
+      <c r="C208" t="s">
+        <v>245</v>
+      </c>
+      <c r="D208">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>50187</v>
+      </c>
+      <c r="B209" t="s">
+        <v>40</v>
+      </c>
+      <c r="C209" t="s">
+        <v>246</v>
+      </c>
+      <c r="D209">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>50188</v>
+      </c>
+      <c r="B210" t="s">
+        <v>40</v>
+      </c>
+      <c r="C210" t="s">
+        <v>247</v>
+      </c>
+      <c r="D210">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>50189</v>
+      </c>
+      <c r="B211" t="s">
+        <v>41</v>
+      </c>
+      <c r="C211" t="s">
+        <v>248</v>
+      </c>
+      <c r="D211">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>50190</v>
+      </c>
+      <c r="B212" t="s">
+        <v>41</v>
+      </c>
+      <c r="C212" t="s">
+        <v>249</v>
+      </c>
+      <c r="D212">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>50191</v>
+      </c>
+      <c r="B213" t="s">
+        <v>41</v>
+      </c>
+      <c r="C213" t="s">
+        <v>250</v>
+      </c>
+      <c r="D213">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>50192</v>
+      </c>
+      <c r="B214" t="s">
+        <v>41</v>
+      </c>
+      <c r="C214" t="s">
+        <v>251</v>
+      </c>
+      <c r="D214">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>50193</v>
+      </c>
+      <c r="B215" t="s">
+        <v>41</v>
+      </c>
+      <c r="C215" t="s">
+        <v>252</v>
+      </c>
+      <c r="D215">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>50194</v>
+      </c>
+      <c r="B216" t="s">
+        <v>41</v>
+      </c>
+      <c r="C216" t="s">
+        <v>253</v>
+      </c>
+      <c r="D216">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>50195</v>
+      </c>
+      <c r="B217" t="s">
+        <v>41</v>
+      </c>
+      <c r="C217" t="s">
+        <v>254</v>
+      </c>
+      <c r="D217">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>50196</v>
+      </c>
+      <c r="B218" t="s">
+        <v>41</v>
+      </c>
+      <c r="C218" t="s">
+        <v>255</v>
+      </c>
+      <c r="D218">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>50197</v>
+      </c>
+      <c r="B219" t="s">
+        <v>41</v>
+      </c>
+      <c r="C219" t="s">
+        <v>256</v>
+      </c>
+      <c r="D219">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>50198</v>
+      </c>
+      <c r="B220" t="s">
+        <v>41</v>
+      </c>
+      <c r="C220" t="s">
+        <v>182</v>
+      </c>
+      <c r="D220">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>50199</v>
+      </c>
+      <c r="B221" t="s">
+        <v>42</v>
+      </c>
+      <c r="C221" t="s">
+        <v>257</v>
+      </c>
+      <c r="D221">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>50200</v>
+      </c>
+      <c r="B222" t="s">
+        <v>43</v>
+      </c>
+      <c r="C222" t="s">
+        <v>258</v>
+      </c>
+      <c r="D222">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>50201</v>
+      </c>
+      <c r="B223" t="s">
+        <v>44</v>
+      </c>
+      <c r="C223" t="s">
+        <v>259</v>
+      </c>
+      <c r="D223">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>50202</v>
+      </c>
+      <c r="B224" t="s">
+        <v>45</v>
+      </c>
+      <c r="C224" t="s">
+        <v>260</v>
+      </c>
+      <c r="D224">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>50203</v>
+      </c>
+      <c r="B225" t="s">
+        <v>46</v>
+      </c>
+      <c r="C225" t="s">
+        <v>261</v>
+      </c>
+      <c r="D225">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>50204</v>
+      </c>
+      <c r="B226" t="s">
+        <v>47</v>
+      </c>
+      <c r="C226" t="s">
+        <v>182</v>
+      </c>
+      <c r="D226">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>50205</v>
+      </c>
+      <c r="B227" t="s">
+        <v>48</v>
+      </c>
+      <c r="C227" t="s">
+        <v>262</v>
+      </c>
+      <c r="D227">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>50206</v>
+      </c>
+      <c r="B228" t="s">
+        <v>49</v>
+      </c>
+      <c r="C228" t="s">
+        <v>263</v>
+      </c>
+      <c r="D228">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>50207</v>
+      </c>
+      <c r="B229" t="s">
+        <v>50</v>
+      </c>
+      <c r="C229" t="s">
+        <v>264</v>
+      </c>
+      <c r="D229">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>50208</v>
+      </c>
+      <c r="B230" t="s">
+        <v>50</v>
+      </c>
+      <c r="C230" t="s">
+        <v>265</v>
+      </c>
+      <c r="D230">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>50209</v>
+      </c>
+      <c r="B231" t="s">
+        <v>50</v>
+      </c>
+      <c r="C231" t="s">
+        <v>266</v>
+      </c>
+      <c r="D231">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>50210</v>
+      </c>
+      <c r="B232" t="s">
+        <v>50</v>
+      </c>
+      <c r="C232" t="s">
+        <v>267</v>
+      </c>
+      <c r="D232">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>50211</v>
+      </c>
+      <c r="B233" t="s">
+        <v>50</v>
+      </c>
+      <c r="C233" t="s">
+        <v>268</v>
+      </c>
+      <c r="D233">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>50212</v>
+      </c>
+      <c r="B234" t="s">
+        <v>50</v>
+      </c>
+      <c r="C234" t="s">
+        <v>269</v>
+      </c>
+      <c r="D234">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>50213</v>
+      </c>
+      <c r="B235" t="s">
+        <v>50</v>
+      </c>
+      <c r="C235" t="s">
+        <v>270</v>
+      </c>
+      <c r="D235">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>50214</v>
+      </c>
+      <c r="B236" t="s">
+        <v>50</v>
+      </c>
+      <c r="C236" t="s">
+        <v>271</v>
+      </c>
+      <c r="D236">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>50215</v>
+      </c>
+      <c r="B237" t="s">
+        <v>50</v>
+      </c>
+      <c r="C237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D237">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>50216</v>
+      </c>
+      <c r="B238" t="s">
+        <v>50</v>
+      </c>
+      <c r="C238" t="s">
+        <v>273</v>
+      </c>
+      <c r="D238">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>50217</v>
+      </c>
+      <c r="B239" t="s">
+        <v>50</v>
+      </c>
+      <c r="C239" t="s">
+        <v>274</v>
+      </c>
+      <c r="D239">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>50218</v>
+      </c>
+      <c r="B240" t="s">
+        <v>50</v>
+      </c>
+      <c r="C240" t="s">
+        <v>275</v>
+      </c>
+      <c r="D240">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>50219</v>
+      </c>
+      <c r="B241" t="s">
+        <v>50</v>
+      </c>
+      <c r="C241" t="s">
+        <v>275</v>
+      </c>
+      <c r="D241">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
+        <v>50220</v>
+      </c>
+      <c r="B242" t="s">
+        <v>50</v>
+      </c>
+      <c r="C242" t="s">
+        <v>275</v>
+      </c>
+      <c r="D242">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>50221</v>
+      </c>
+      <c r="B243" t="s">
+        <v>50</v>
+      </c>
+      <c r="C243" t="s">
+        <v>276</v>
+      </c>
+      <c r="D243">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
+        <v>50222</v>
+      </c>
+      <c r="B244" t="s">
+        <v>50</v>
+      </c>
+      <c r="C244" t="s">
+        <v>277</v>
+      </c>
+      <c r="D244">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
+        <v>50223</v>
+      </c>
+      <c r="B245" t="s">
+        <v>50</v>
+      </c>
+      <c r="C245" t="s">
+        <v>278</v>
+      </c>
+      <c r="D245">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
+        <v>50224</v>
+      </c>
+      <c r="B246" t="s">
+        <v>50</v>
+      </c>
+      <c r="C246" t="s">
+        <v>279</v>
+      </c>
+      <c r="D246">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
+        <v>50225</v>
+      </c>
+      <c r="B247" t="s">
+        <v>50</v>
+      </c>
+      <c r="C247" t="s">
+        <v>280</v>
+      </c>
+      <c r="D247">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
+        <v>50226</v>
+      </c>
+      <c r="B248" t="s">
+        <v>50</v>
+      </c>
+      <c r="C248" t="s">
+        <v>281</v>
+      </c>
+      <c r="D248">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
+        <v>50227</v>
+      </c>
+      <c r="B249" t="s">
+        <v>50</v>
+      </c>
+      <c r="C249" t="s">
+        <v>282</v>
+      </c>
+      <c r="D249">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
+        <v>50228</v>
+      </c>
+      <c r="B250" t="s">
+        <v>50</v>
+      </c>
+      <c r="C250" t="s">
+        <v>283</v>
+      </c>
+      <c r="D250">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
+        <v>50229</v>
+      </c>
+      <c r="B251" t="s">
+        <v>50</v>
+      </c>
+      <c r="C251" t="s">
+        <v>280</v>
+      </c>
+      <c r="D251">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
+        <v>50230</v>
+      </c>
+      <c r="B252" t="s">
+        <v>50</v>
+      </c>
+      <c r="C252" t="s">
+        <v>284</v>
+      </c>
+      <c r="D252">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
+        <v>50231</v>
+      </c>
+      <c r="B253" t="s">
+        <v>50</v>
+      </c>
+      <c r="C253" t="s">
+        <v>280</v>
+      </c>
+      <c r="D253">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
+        <v>50232</v>
+      </c>
+      <c r="B254" t="s">
+        <v>50</v>
+      </c>
+      <c r="C254" t="s">
+        <v>281</v>
+      </c>
+      <c r="D254">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
+        <v>50233</v>
+      </c>
+      <c r="B255" t="s">
+        <v>50</v>
+      </c>
+      <c r="C255" t="s">
+        <v>285</v>
+      </c>
+      <c r="D255">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
+        <v>50234</v>
+      </c>
+      <c r="B256" t="s">
+        <v>51</v>
+      </c>
+      <c r="C256" t="s">
+        <v>286</v>
+      </c>
+      <c r="D256">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
+        <v>50235</v>
+      </c>
+      <c r="B257" t="s">
+        <v>52</v>
+      </c>
+      <c r="C257" t="s">
+        <v>287</v>
+      </c>
+      <c r="D257">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
+        <v>50236</v>
+      </c>
+      <c r="B258" t="s">
+        <v>52</v>
+      </c>
+      <c r="C258" t="s">
+        <v>288</v>
+      </c>
+      <c r="D258">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>50237</v>
+      </c>
+      <c r="B259" t="s">
+        <v>52</v>
+      </c>
+      <c r="C259" t="s">
+        <v>289</v>
+      </c>
+      <c r="D259">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
+        <v>50238</v>
+      </c>
+      <c r="B260" t="s">
+        <v>53</v>
+      </c>
+      <c r="C260" t="s">
+        <v>290</v>
+      </c>
+      <c r="D260">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>50239</v>
+      </c>
+      <c r="B261" t="s">
+        <v>54</v>
+      </c>
+      <c r="C261" t="s">
+        <v>291</v>
+      </c>
+      <c r="D261">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>50240</v>
+      </c>
+      <c r="B262" t="s">
+        <v>55</v>
+      </c>
+      <c r="C262" t="s">
+        <v>103</v>
+      </c>
+      <c r="D262">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>50241</v>
+      </c>
+      <c r="B263" t="s">
+        <v>56</v>
+      </c>
+      <c r="C263" t="s">
+        <v>103</v>
+      </c>
+      <c r="D263">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>50242</v>
+      </c>
+      <c r="B264" t="s">
+        <v>57</v>
+      </c>
+      <c r="C264" t="s">
+        <v>292</v>
+      </c>
+      <c r="D264">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>50243</v>
+      </c>
+      <c r="B265" t="s">
+        <v>58</v>
+      </c>
+      <c r="C265" t="s">
+        <v>87</v>
+      </c>
+      <c r="D265">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>50244</v>
+      </c>
+      <c r="B266" t="s">
+        <v>59</v>
+      </c>
+      <c r="C266" t="s">
+        <v>103</v>
+      </c>
+      <c r="D266">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>50245</v>
+      </c>
+      <c r="B267" t="s">
+        <v>59</v>
+      </c>
+      <c r="C267" t="s">
+        <v>103</v>
+      </c>
+      <c r="D267">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>50246</v>
+      </c>
+      <c r="B268" t="s">
+        <v>60</v>
+      </c>
+      <c r="C268" t="s">
+        <v>103</v>
+      </c>
+      <c r="D268">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>50247</v>
+      </c>
+      <c r="B269" t="s">
+        <v>61</v>
+      </c>
+      <c r="C269" t="s">
+        <v>103</v>
+      </c>
+      <c r="D269">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>50248</v>
+      </c>
+      <c r="B270" t="s">
+        <v>61</v>
+      </c>
+      <c r="C270" t="s">
+        <v>293</v>
+      </c>
+      <c r="D270">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>50249</v>
+      </c>
+      <c r="B271" t="s">
+        <v>62</v>
+      </c>
+      <c r="C271" t="s">
+        <v>103</v>
+      </c>
+      <c r="D271">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>50250</v>
+      </c>
+      <c r="B272" t="s">
+        <v>50</v>
+      </c>
+      <c r="C272" t="s">
+        <v>294</v>
+      </c>
+      <c r="D272">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>50251</v>
+      </c>
+      <c r="B273" t="s">
+        <v>63</v>
+      </c>
+      <c r="C273" t="s">
+        <v>295</v>
+      </c>
+      <c r="D273">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>50252</v>
+      </c>
+      <c r="B274" t="s">
+        <v>64</v>
+      </c>
+      <c r="C274" t="s">
+        <v>87</v>
+      </c>
+      <c r="D274">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>50253</v>
+      </c>
+      <c r="B275" t="s">
+        <v>64</v>
+      </c>
+      <c r="C275" t="s">
+        <v>87</v>
+      </c>
+      <c r="D275">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>50254</v>
+      </c>
+      <c r="B276" t="s">
+        <v>64</v>
+      </c>
+      <c r="C276" t="s">
+        <v>87</v>
+      </c>
+      <c r="D276">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
+        <v>50255</v>
+      </c>
+      <c r="B277" t="s">
+        <v>64</v>
+      </c>
+      <c r="C277" t="s">
+        <v>87</v>
+      </c>
+      <c r="D277">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>50256</v>
+      </c>
+      <c r="B278" t="s">
+        <v>64</v>
+      </c>
+      <c r="C278" t="s">
+        <v>87</v>
+      </c>
+      <c r="D278">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>50257</v>
+      </c>
+      <c r="B279" t="s">
+        <v>64</v>
+      </c>
+      <c r="C279" t="s">
+        <v>87</v>
+      </c>
+      <c r="D279">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>50258</v>
+      </c>
+      <c r="B280" t="s">
+        <v>64</v>
+      </c>
+      <c r="C280" t="s">
+        <v>87</v>
+      </c>
+      <c r="D280">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>50259</v>
+      </c>
+      <c r="B281" t="s">
+        <v>64</v>
+      </c>
+      <c r="C281" t="s">
+        <v>87</v>
+      </c>
+      <c r="D281">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>50260</v>
+      </c>
+      <c r="B282" t="s">
+        <v>64</v>
+      </c>
+      <c r="C282" t="s">
+        <v>87</v>
+      </c>
+      <c r="D282">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>50261</v>
+      </c>
+      <c r="B283" t="s">
+        <v>64</v>
+      </c>
+      <c r="C283" t="s">
+        <v>87</v>
+      </c>
+      <c r="D283">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
+        <v>50262</v>
+      </c>
+      <c r="B284" t="s">
+        <v>64</v>
+      </c>
+      <c r="C284" t="s">
+        <v>87</v>
+      </c>
+      <c r="D284">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
+        <v>50263</v>
+      </c>
+      <c r="B285" t="s">
+        <v>64</v>
+      </c>
+      <c r="C285" t="s">
+        <v>87</v>
+      </c>
+      <c r="D285">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>50264</v>
+      </c>
+      <c r="B286" t="s">
+        <v>64</v>
+      </c>
+      <c r="C286" t="s">
+        <v>87</v>
+      </c>
+      <c r="D286">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>50265</v>
+      </c>
+      <c r="B287" t="s">
+        <v>64</v>
+      </c>
+      <c r="C287" t="s">
+        <v>87</v>
+      </c>
+      <c r="D287">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
+        <v>50266</v>
+      </c>
+      <c r="B288" t="s">
+        <v>64</v>
+      </c>
+      <c r="C288" t="s">
+        <v>87</v>
+      </c>
+      <c r="D288">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
+        <v>50267</v>
+      </c>
+      <c r="B289" t="s">
+        <v>64</v>
+      </c>
+      <c r="C289" t="s">
+        <v>87</v>
+      </c>
+      <c r="D289">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
+        <v>50268</v>
+      </c>
+      <c r="B290" t="s">
+        <v>64</v>
+      </c>
+      <c r="C290" t="s">
+        <v>87</v>
+      </c>
+      <c r="D290">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>50269</v>
+      </c>
+      <c r="B291" t="s">
+        <v>64</v>
+      </c>
+      <c r="C291" t="s">
+        <v>87</v>
+      </c>
+      <c r="D291">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
+        <v>50270</v>
+      </c>
+      <c r="B292" t="s">
+        <v>64</v>
+      </c>
+      <c r="C292" t="s">
+        <v>87</v>
+      </c>
+      <c r="D292">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
+        <v>50271</v>
+      </c>
+      <c r="B293" t="s">
+        <v>64</v>
+      </c>
+      <c r="C293" t="s">
+        <v>87</v>
+      </c>
+      <c r="D293">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>50272</v>
+      </c>
+      <c r="B294" t="s">
+        <v>64</v>
+      </c>
+      <c r="C294" t="s">
+        <v>87</v>
+      </c>
+      <c r="D294">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>50273</v>
+      </c>
+      <c r="B295" t="s">
+        <v>64</v>
+      </c>
+      <c r="C295" t="s">
+        <v>87</v>
+      </c>
+      <c r="D295">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>50274</v>
+      </c>
+      <c r="B296" t="s">
+        <v>64</v>
+      </c>
+      <c r="C296" t="s">
+        <v>87</v>
+      </c>
+      <c r="D296">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>50275</v>
+      </c>
+      <c r="B297" t="s">
+        <v>64</v>
+      </c>
+      <c r="C297" t="s">
+        <v>87</v>
+      </c>
+      <c r="D297">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>50276</v>
+      </c>
+      <c r="B298" t="s">
+        <v>64</v>
+      </c>
+      <c r="C298" t="s">
+        <v>87</v>
+      </c>
+      <c r="D298">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>50277</v>
+      </c>
+      <c r="B299" t="s">
+        <v>64</v>
+      </c>
+      <c r="C299" t="s">
+        <v>87</v>
+      </c>
+      <c r="D299">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
+        <v>50278</v>
+      </c>
+      <c r="B300" t="s">
+        <v>65</v>
+      </c>
+      <c r="C300" t="s">
+        <v>87</v>
+      </c>
+      <c r="D300">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
+        <v>50279</v>
+      </c>
+      <c r="B301" t="s">
+        <v>65</v>
+      </c>
+      <c r="C301" t="s">
+        <v>87</v>
+      </c>
+      <c r="D301">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
+        <v>50280</v>
+      </c>
+      <c r="B302" t="s">
+        <v>65</v>
+      </c>
+      <c r="C302" t="s">
+        <v>87</v>
+      </c>
+      <c r="D302">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
+        <v>50281</v>
+      </c>
+      <c r="B303" t="s">
+        <v>65</v>
+      </c>
+      <c r="C303" t="s">
+        <v>87</v>
+      </c>
+      <c r="D303">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
+        <v>50282</v>
+      </c>
+      <c r="B304" t="s">
+        <v>65</v>
+      </c>
+      <c r="C304" t="s">
+        <v>87</v>
+      </c>
+      <c r="D304">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1">
+        <v>50283</v>
+      </c>
+      <c r="B305" t="s">
+        <v>65</v>
+      </c>
+      <c r="C305" t="s">
+        <v>87</v>
+      </c>
+      <c r="D305">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1">
+        <v>50284</v>
+      </c>
+      <c r="B306" t="s">
+        <v>65</v>
+      </c>
+      <c r="C306" t="s">
+        <v>87</v>
+      </c>
+      <c r="D306">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1">
+        <v>50285</v>
+      </c>
+      <c r="B307" t="s">
+        <v>65</v>
+      </c>
+      <c r="C307" t="s">
+        <v>87</v>
+      </c>
+      <c r="D307">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1">
+        <v>50286</v>
+      </c>
+      <c r="B308" t="s">
+        <v>65</v>
+      </c>
+      <c r="C308" t="s">
+        <v>87</v>
+      </c>
+      <c r="D308">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>50287</v>
+      </c>
+      <c r="B309" t="s">
+        <v>65</v>
+      </c>
+      <c r="C309" t="s">
+        <v>87</v>
+      </c>
+      <c r="D309">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1">
+        <v>50288</v>
+      </c>
+      <c r="B310" t="s">
+        <v>65</v>
+      </c>
+      <c r="C310" t="s">
+        <v>87</v>
+      </c>
+      <c r="D310">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1">
+        <v>50289</v>
+      </c>
+      <c r="B311" t="s">
+        <v>65</v>
+      </c>
+      <c r="C311" t="s">
+        <v>87</v>
+      </c>
+      <c r="D311">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1">
+        <v>50290</v>
+      </c>
+      <c r="B312" t="s">
+        <v>65</v>
+      </c>
+      <c r="C312" t="s">
+        <v>87</v>
+      </c>
+      <c r="D312">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1">
+        <v>50291</v>
+      </c>
+      <c r="B313" t="s">
+        <v>65</v>
+      </c>
+      <c r="C313" t="s">
+        <v>87</v>
+      </c>
+      <c r="D313">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>50292</v>
+      </c>
+      <c r="B314" t="s">
+        <v>65</v>
+      </c>
+      <c r="C314" t="s">
+        <v>87</v>
+      </c>
+      <c r="D314">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1">
+        <v>50293</v>
+      </c>
+      <c r="B315" t="s">
+        <v>65</v>
+      </c>
+      <c r="C315" t="s">
+        <v>87</v>
+      </c>
+      <c r="D315">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1">
+        <v>50294</v>
+      </c>
+      <c r="B316" t="s">
+        <v>65</v>
+      </c>
+      <c r="C316" t="s">
+        <v>87</v>
+      </c>
+      <c r="D316">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>50295</v>
+      </c>
+      <c r="B317" t="s">
+        <v>65</v>
+      </c>
+      <c r="C317" t="s">
+        <v>87</v>
+      </c>
+      <c r="D317">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1">
+        <v>50296</v>
+      </c>
+      <c r="B318" t="s">
+        <v>65</v>
+      </c>
+      <c r="C318" t="s">
+        <v>87</v>
+      </c>
+      <c r="D318">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>50297</v>
+      </c>
+      <c r="B319" t="s">
+        <v>65</v>
+      </c>
+      <c r="C319" t="s">
+        <v>87</v>
+      </c>
+      <c r="D319">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>50298</v>
+      </c>
+      <c r="B320" t="s">
+        <v>65</v>
+      </c>
+      <c r="C320" t="s">
+        <v>87</v>
+      </c>
+      <c r="D320">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>50299</v>
+      </c>
+      <c r="B321" t="s">
+        <v>65</v>
+      </c>
+      <c r="C321" t="s">
+        <v>87</v>
+      </c>
+      <c r="D321">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>50300</v>
+      </c>
+      <c r="B322" t="s">
+        <v>65</v>
+      </c>
+      <c r="C322" t="s">
+        <v>87</v>
+      </c>
+      <c r="D322">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>50301</v>
+      </c>
+      <c r="B323" t="s">
+        <v>65</v>
+      </c>
+      <c r="C323" t="s">
+        <v>87</v>
+      </c>
+      <c r="D323">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>50302</v>
+      </c>
+      <c r="B324" t="s">
+        <v>65</v>
+      </c>
+      <c r="C324" t="s">
+        <v>87</v>
+      </c>
+      <c r="D324">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>50303</v>
+      </c>
+      <c r="B325" t="s">
+        <v>65</v>
+      </c>
+      <c r="C325" t="s">
+        <v>87</v>
+      </c>
+      <c r="D325">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>50304</v>
+      </c>
+      <c r="B326" t="s">
+        <v>65</v>
+      </c>
+      <c r="C326" t="s">
+        <v>87</v>
+      </c>
+      <c r="D326">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>50305</v>
+      </c>
+      <c r="B327" t="s">
+        <v>65</v>
+      </c>
+      <c r="C327" t="s">
+        <v>87</v>
+      </c>
+      <c r="D327">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>50306</v>
+      </c>
+      <c r="B328" t="s">
+        <v>65</v>
+      </c>
+      <c r="C328" t="s">
+        <v>87</v>
+      </c>
+      <c r="D328">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>50307</v>
+      </c>
+      <c r="B329" t="s">
+        <v>65</v>
+      </c>
+      <c r="C329" t="s">
+        <v>87</v>
+      </c>
+      <c r="D329">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>50308</v>
+      </c>
+      <c r="B330" t="s">
+        <v>66</v>
+      </c>
+      <c r="C330" t="s">
+        <v>87</v>
+      </c>
+      <c r="D330">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>50309</v>
+      </c>
+      <c r="B331" t="s">
+        <v>66</v>
+      </c>
+      <c r="C331" t="s">
+        <v>87</v>
+      </c>
+      <c r="D331">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>50310</v>
+      </c>
+      <c r="B332" t="s">
+        <v>66</v>
+      </c>
+      <c r="C332" t="s">
+        <v>87</v>
+      </c>
+      <c r="D332">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>50311</v>
+      </c>
+      <c r="B333" t="s">
+        <v>66</v>
+      </c>
+      <c r="C333" t="s">
+        <v>87</v>
+      </c>
+      <c r="D333">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>50312</v>
+      </c>
+      <c r="B334" t="s">
+        <v>66</v>
+      </c>
+      <c r="C334" t="s">
+        <v>87</v>
+      </c>
+      <c r="D334">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>50313</v>
+      </c>
+      <c r="B335" t="s">
+        <v>66</v>
+      </c>
+      <c r="C335" t="s">
+        <v>87</v>
+      </c>
+      <c r="D335">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>50314</v>
+      </c>
+      <c r="B336" t="s">
+        <v>66</v>
+      </c>
+      <c r="C336" t="s">
+        <v>87</v>
+      </c>
+      <c r="D336">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1">
+        <v>50315</v>
+      </c>
+      <c r="B337" t="s">
+        <v>66</v>
+      </c>
+      <c r="C337" t="s">
+        <v>87</v>
+      </c>
+      <c r="D337">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1">
+        <v>50316</v>
+      </c>
+      <c r="B338" t="s">
+        <v>66</v>
+      </c>
+      <c r="C338" t="s">
+        <v>87</v>
+      </c>
+      <c r="D338">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1">
+        <v>50317</v>
+      </c>
+      <c r="B339" t="s">
+        <v>66</v>
+      </c>
+      <c r="C339" t="s">
+        <v>87</v>
+      </c>
+      <c r="D339">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1">
+        <v>50318</v>
+      </c>
+      <c r="B340" t="s">
+        <v>66</v>
+      </c>
+      <c r="C340" t="s">
+        <v>87</v>
+      </c>
+      <c r="D340">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1">
+        <v>50319</v>
+      </c>
+      <c r="B341" t="s">
+        <v>66</v>
+      </c>
+      <c r="C341" t="s">
+        <v>87</v>
+      </c>
+      <c r="D341">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1">
+        <v>50320</v>
+      </c>
+      <c r="B342" t="s">
+        <v>66</v>
+      </c>
+      <c r="C342" t="s">
+        <v>87</v>
+      </c>
+      <c r="D342">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1">
+        <v>50321</v>
+      </c>
+      <c r="B343" t="s">
+        <v>66</v>
+      </c>
+      <c r="C343" t="s">
+        <v>87</v>
+      </c>
+      <c r="D343">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1">
+        <v>50322</v>
+      </c>
+      <c r="B344" t="s">
+        <v>66</v>
+      </c>
+      <c r="C344" t="s">
+        <v>87</v>
+      </c>
+      <c r="D344">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1">
+        <v>50323</v>
+      </c>
+      <c r="B345" t="s">
+        <v>66</v>
+      </c>
+      <c r="C345" t="s">
+        <v>87</v>
+      </c>
+      <c r="D345">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1">
+        <v>50324</v>
+      </c>
+      <c r="B346" t="s">
+        <v>66</v>
+      </c>
+      <c r="C346" t="s">
+        <v>87</v>
+      </c>
+      <c r="D346">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1">
+        <v>50325</v>
+      </c>
+      <c r="B347" t="s">
+        <v>66</v>
+      </c>
+      <c r="C347" t="s">
+        <v>87</v>
+      </c>
+      <c r="D347">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1">
+        <v>50326</v>
+      </c>
+      <c r="B348" t="s">
+        <v>66</v>
+      </c>
+      <c r="C348" t="s">
+        <v>87</v>
+      </c>
+      <c r="D348">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1">
+        <v>50327</v>
+      </c>
+      <c r="B349" t="s">
+        <v>66</v>
+      </c>
+      <c r="C349" t="s">
+        <v>87</v>
+      </c>
+      <c r="D349">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1">
+        <v>50328</v>
+      </c>
+      <c r="B350" t="s">
+        <v>66</v>
+      </c>
+      <c r="C350" t="s">
+        <v>87</v>
+      </c>
+      <c r="D350">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1">
+        <v>50329</v>
+      </c>
+      <c r="B351" t="s">
+        <v>66</v>
+      </c>
+      <c r="C351" t="s">
+        <v>87</v>
+      </c>
+      <c r="D351">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1">
+        <v>50330</v>
+      </c>
+      <c r="B352" t="s">
+        <v>66</v>
+      </c>
+      <c r="C352" t="s">
+        <v>87</v>
+      </c>
+      <c r="D352">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1">
+        <v>50331</v>
+      </c>
+      <c r="B353" t="s">
+        <v>66</v>
+      </c>
+      <c r="C353" t="s">
+        <v>87</v>
+      </c>
+      <c r="D353">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1">
+        <v>50332</v>
+      </c>
+      <c r="B354" t="s">
+        <v>66</v>
+      </c>
+      <c r="C354" t="s">
+        <v>87</v>
+      </c>
+      <c r="D354">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1">
+        <v>50333</v>
+      </c>
+      <c r="B355" t="s">
+        <v>66</v>
+      </c>
+      <c r="C355" t="s">
+        <v>87</v>
+      </c>
+      <c r="D355">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1">
+        <v>50334</v>
+      </c>
+      <c r="B356" t="s">
+        <v>66</v>
+      </c>
+      <c r="C356" t="s">
+        <v>87</v>
+      </c>
+      <c r="D356">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1">
+        <v>50335</v>
+      </c>
+      <c r="B357" t="s">
+        <v>66</v>
+      </c>
+      <c r="C357" t="s">
+        <v>87</v>
+      </c>
+      <c r="D357">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1">
+        <v>50336</v>
+      </c>
+      <c r="B358" t="s">
+        <v>66</v>
+      </c>
+      <c r="C358" t="s">
+        <v>87</v>
+      </c>
+      <c r="D358">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1">
+        <v>50337</v>
+      </c>
+      <c r="B359" t="s">
+        <v>66</v>
+      </c>
+      <c r="C359" t="s">
+        <v>87</v>
+      </c>
+      <c r="D359">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1">
+        <v>50338</v>
+      </c>
+      <c r="B360" t="s">
+        <v>66</v>
+      </c>
+      <c r="C360" t="s">
+        <v>87</v>
+      </c>
+      <c r="D360">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1">
+        <v>50339</v>
+      </c>
+      <c r="B361" t="s">
+        <v>66</v>
+      </c>
+      <c r="C361" t="s">
+        <v>87</v>
+      </c>
+      <c r="D361">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1">
+        <v>50340</v>
+      </c>
+      <c r="B362" t="s">
+        <v>66</v>
+      </c>
+      <c r="C362" t="s">
+        <v>87</v>
+      </c>
+      <c r="D362">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1">
+        <v>50341</v>
+      </c>
+      <c r="B363" t="s">
+        <v>66</v>
+      </c>
+      <c r="C363" t="s">
+        <v>87</v>
+      </c>
+      <c r="D363">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>50342</v>
+      </c>
+      <c r="B364" t="s">
+        <v>66</v>
+      </c>
+      <c r="C364" t="s">
+        <v>87</v>
+      </c>
+      <c r="D364">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1">
+        <v>50343</v>
+      </c>
+      <c r="B365" t="s">
+        <v>66</v>
+      </c>
+      <c r="C365" t="s">
+        <v>87</v>
+      </c>
+      <c r="D365">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1">
+        <v>50344</v>
+      </c>
+      <c r="B366" t="s">
+        <v>66</v>
+      </c>
+      <c r="C366" t="s">
+        <v>87</v>
+      </c>
+      <c r="D366">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1">
+        <v>50345</v>
+      </c>
+      <c r="B367" t="s">
+        <v>66</v>
+      </c>
+      <c r="C367" t="s">
+        <v>87</v>
+      </c>
+      <c r="D367">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1">
+        <v>50346</v>
+      </c>
+      <c r="B368" t="s">
+        <v>66</v>
+      </c>
+      <c r="C368" t="s">
+        <v>87</v>
+      </c>
+      <c r="D368">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>50347</v>
+      </c>
+      <c r="B369" t="s">
+        <v>66</v>
+      </c>
+      <c r="C369" t="s">
+        <v>87</v>
+      </c>
+      <c r="D369">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>50348</v>
+      </c>
+      <c r="B370" t="s">
+        <v>66</v>
+      </c>
+      <c r="C370" t="s">
+        <v>87</v>
+      </c>
+      <c r="D370">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>50349</v>
+      </c>
+      <c r="B371" t="s">
+        <v>66</v>
+      </c>
+      <c r="C371" t="s">
+        <v>87</v>
+      </c>
+      <c r="D371">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>50350</v>
+      </c>
+      <c r="B372" t="s">
+        <v>66</v>
+      </c>
+      <c r="C372" t="s">
+        <v>87</v>
+      </c>
+      <c r="D372">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
+        <v>50351</v>
+      </c>
+      <c r="B373" t="s">
+        <v>67</v>
+      </c>
+      <c r="C373" t="s">
+        <v>87</v>
+      </c>
+      <c r="D373">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>50352</v>
+      </c>
+      <c r="B374" t="s">
+        <v>67</v>
+      </c>
+      <c r="C374" t="s">
+        <v>87</v>
+      </c>
+      <c r="D374">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>50353</v>
+      </c>
+      <c r="B375" t="s">
+        <v>67</v>
+      </c>
+      <c r="C375" t="s">
+        <v>87</v>
+      </c>
+      <c r="D375">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>50354</v>
+      </c>
+      <c r="B376" t="s">
+        <v>67</v>
+      </c>
+      <c r="C376" t="s">
+        <v>87</v>
+      </c>
+      <c r="D376">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>50355</v>
+      </c>
+      <c r="B377" t="s">
+        <v>67</v>
+      </c>
+      <c r="C377" t="s">
+        <v>87</v>
+      </c>
+      <c r="D377">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1">
+        <v>50356</v>
+      </c>
+      <c r="B378" t="s">
+        <v>67</v>
+      </c>
+      <c r="C378" t="s">
+        <v>87</v>
+      </c>
+      <c r="D378">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1">
+        <v>50357</v>
+      </c>
+      <c r="B379" t="s">
+        <v>67</v>
+      </c>
+      <c r="C379" t="s">
+        <v>87</v>
+      </c>
+      <c r="D379">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>50358</v>
+      </c>
+      <c r="B380" t="s">
+        <v>67</v>
+      </c>
+      <c r="C380" t="s">
+        <v>87</v>
+      </c>
+      <c r="D380">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1">
+        <v>50359</v>
+      </c>
+      <c r="B381" t="s">
+        <v>67</v>
+      </c>
+      <c r="C381" t="s">
+        <v>87</v>
+      </c>
+      <c r="D381">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1">
+        <v>50360</v>
+      </c>
+      <c r="B382" t="s">
+        <v>67</v>
+      </c>
+      <c r="C382" t="s">
+        <v>87</v>
+      </c>
+      <c r="D382">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1">
+        <v>50361</v>
+      </c>
+      <c r="B383" t="s">
+        <v>67</v>
+      </c>
+      <c r="C383" t="s">
+        <v>87</v>
+      </c>
+      <c r="D383">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1">
+        <v>50362</v>
+      </c>
+      <c r="B384" t="s">
+        <v>68</v>
+      </c>
+      <c r="C384" t="s">
+        <v>87</v>
+      </c>
+      <c r="D384">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1">
+        <v>50363</v>
+      </c>
+      <c r="B385" t="s">
+        <v>68</v>
+      </c>
+      <c r="C385" t="s">
+        <v>87</v>
+      </c>
+      <c r="D385">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1">
+        <v>50364</v>
+      </c>
+      <c r="B386" t="s">
+        <v>68</v>
+      </c>
+      <c r="C386" t="s">
+        <v>87</v>
+      </c>
+      <c r="D386">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1">
+        <v>50365</v>
+      </c>
+      <c r="B387" t="s">
+        <v>68</v>
+      </c>
+      <c r="C387" t="s">
+        <v>87</v>
+      </c>
+      <c r="D387">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1">
+        <v>50366</v>
+      </c>
+      <c r="B388" t="s">
+        <v>68</v>
+      </c>
+      <c r="C388" t="s">
+        <v>87</v>
+      </c>
+      <c r="D388">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1">
+        <v>50367</v>
+      </c>
+      <c r="B389" t="s">
+        <v>68</v>
+      </c>
+      <c r="C389" t="s">
+        <v>87</v>
+      </c>
+      <c r="D389">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1">
+        <v>50368</v>
+      </c>
+      <c r="B390" t="s">
+        <v>68</v>
+      </c>
+      <c r="C390" t="s">
+        <v>87</v>
+      </c>
+      <c r="D390">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1">
+        <v>50369</v>
+      </c>
+      <c r="B391" t="s">
+        <v>68</v>
+      </c>
+      <c r="C391" t="s">
+        <v>87</v>
+      </c>
+      <c r="D391">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1">
+        <v>50370</v>
+      </c>
+      <c r="B392" t="s">
+        <v>68</v>
+      </c>
+      <c r="C392" t="s">
+        <v>87</v>
+      </c>
+      <c r="D392">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1">
+        <v>50371</v>
+      </c>
+      <c r="B393" t="s">
+        <v>68</v>
+      </c>
+      <c r="C393" t="s">
+        <v>87</v>
+      </c>
+      <c r="D393">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1">
+        <v>50372</v>
+      </c>
+      <c r="B394" t="s">
+        <v>68</v>
+      </c>
+      <c r="C394" t="s">
+        <v>87</v>
+      </c>
+      <c r="D394">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1">
+        <v>50373</v>
+      </c>
+      <c r="B395" t="s">
+        <v>68</v>
+      </c>
+      <c r="C395" t="s">
+        <v>87</v>
+      </c>
+      <c r="D395">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1">
+        <v>50374</v>
+      </c>
+      <c r="B396" t="s">
+        <v>68</v>
+      </c>
+      <c r="C396" t="s">
+        <v>87</v>
+      </c>
+      <c r="D396">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1">
+        <v>50375</v>
+      </c>
+      <c r="B397" t="s">
+        <v>68</v>
+      </c>
+      <c r="C397" t="s">
+        <v>87</v>
+      </c>
+      <c r="D397">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1">
+        <v>50376</v>
+      </c>
+      <c r="B398" t="s">
+        <v>68</v>
+      </c>
+      <c r="C398" t="s">
+        <v>87</v>
+      </c>
+      <c r="D398">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1">
+        <v>50377</v>
+      </c>
+      <c r="B399" t="s">
+        <v>68</v>
+      </c>
+      <c r="C399" t="s">
+        <v>87</v>
+      </c>
+      <c r="D399">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1">
+        <v>50378</v>
+      </c>
+      <c r="B400" t="s">
+        <v>69</v>
+      </c>
+      <c r="C400" t="s">
+        <v>87</v>
+      </c>
+      <c r="D400">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1">
+        <v>50379</v>
+      </c>
+      <c r="B401" t="s">
+        <v>69</v>
+      </c>
+      <c r="C401" t="s">
+        <v>87</v>
+      </c>
+      <c r="D401">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1">
+        <v>50380</v>
+      </c>
+      <c r="B402" t="s">
+        <v>69</v>
+      </c>
+      <c r="C402" t="s">
+        <v>87</v>
+      </c>
+      <c r="D402">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1">
+        <v>50381</v>
+      </c>
+      <c r="B403" t="s">
+        <v>69</v>
+      </c>
+      <c r="C403" t="s">
+        <v>87</v>
+      </c>
+      <c r="D403">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1">
+        <v>50382</v>
+      </c>
+      <c r="B404" t="s">
+        <v>69</v>
+      </c>
+      <c r="C404" t="s">
+        <v>87</v>
+      </c>
+      <c r="D404">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1">
+        <v>50383</v>
+      </c>
+      <c r="B405" t="s">
+        <v>69</v>
+      </c>
+      <c r="C405" t="s">
+        <v>87</v>
+      </c>
+      <c r="D405">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1">
+        <v>50384</v>
+      </c>
+      <c r="B406" t="s">
+        <v>69</v>
+      </c>
+      <c r="C406" t="s">
+        <v>87</v>
+      </c>
+      <c r="D406">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="1">
+        <v>50385</v>
+      </c>
+      <c r="B407" t="s">
+        <v>69</v>
+      </c>
+      <c r="C407" t="s">
+        <v>87</v>
+      </c>
+      <c r="D407">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1">
+        <v>50386</v>
+      </c>
+      <c r="B408" t="s">
+        <v>69</v>
+      </c>
+      <c r="C408" t="s">
+        <v>87</v>
+      </c>
+      <c r="D408">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1">
+        <v>50387</v>
+      </c>
+      <c r="B409" t="s">
+        <v>69</v>
+      </c>
+      <c r="C409" t="s">
+        <v>87</v>
+      </c>
+      <c r="D409">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1">
+        <v>50388</v>
+      </c>
+      <c r="B410" t="s">
+        <v>69</v>
+      </c>
+      <c r="C410" t="s">
+        <v>87</v>
+      </c>
+      <c r="D410">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1">
+        <v>50389</v>
+      </c>
+      <c r="B411" t="s">
+        <v>69</v>
+      </c>
+      <c r="C411" t="s">
+        <v>87</v>
+      </c>
+      <c r="D411">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1">
+        <v>50390</v>
+      </c>
+      <c r="B412" t="s">
+        <v>69</v>
+      </c>
+      <c r="C412" t="s">
+        <v>87</v>
+      </c>
+      <c r="D412">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1">
+        <v>50391</v>
+      </c>
+      <c r="B413" t="s">
+        <v>69</v>
+      </c>
+      <c r="C413" t="s">
+        <v>87</v>
+      </c>
+      <c r="D413">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1">
+        <v>50392</v>
+      </c>
+      <c r="B414" t="s">
+        <v>69</v>
+      </c>
+      <c r="C414" t="s">
+        <v>87</v>
+      </c>
+      <c r="D414">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1">
+        <v>50393</v>
+      </c>
+      <c r="B415" t="s">
+        <v>69</v>
+      </c>
+      <c r="C415" t="s">
+        <v>87</v>
+      </c>
+      <c r="D415">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1">
+        <v>50394</v>
+      </c>
+      <c r="B416" t="s">
+        <v>69</v>
+      </c>
+      <c r="C416" t="s">
+        <v>87</v>
+      </c>
+      <c r="D416">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1">
+        <v>50395</v>
+      </c>
+      <c r="B417" t="s">
+        <v>69</v>
+      </c>
+      <c r="C417" t="s">
+        <v>87</v>
+      </c>
+      <c r="D417">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1">
+        <v>50396</v>
+      </c>
+      <c r="B418" t="s">
+        <v>69</v>
+      </c>
+      <c r="C418" t="s">
+        <v>87</v>
+      </c>
+      <c r="D418">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="1">
+        <v>50397</v>
+      </c>
+      <c r="B419" t="s">
+        <v>69</v>
+      </c>
+      <c r="C419" t="s">
+        <v>87</v>
+      </c>
+      <c r="D419">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1">
+        <v>50398</v>
+      </c>
+      <c r="B420" t="s">
+        <v>69</v>
+      </c>
+      <c r="C420" t="s">
+        <v>87</v>
+      </c>
+      <c r="D420">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1">
+        <v>50399</v>
+      </c>
+      <c r="B421" t="s">
+        <v>69</v>
+      </c>
+      <c r="C421" t="s">
+        <v>87</v>
+      </c>
+      <c r="D421">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1">
+        <v>50400</v>
+      </c>
+      <c r="B422" t="s">
+        <v>69</v>
+      </c>
+      <c r="C422" t="s">
+        <v>87</v>
+      </c>
+      <c r="D422">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1">
+        <v>50401</v>
+      </c>
+      <c r="B423" t="s">
+        <v>69</v>
+      </c>
+      <c r="C423" t="s">
+        <v>87</v>
+      </c>
+      <c r="D423">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1">
+        <v>50402</v>
+      </c>
+      <c r="B424" t="s">
+        <v>69</v>
+      </c>
+      <c r="C424" t="s">
+        <v>87</v>
+      </c>
+      <c r="D424">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1">
+        <v>50403</v>
+      </c>
+      <c r="B425" t="s">
+        <v>69</v>
+      </c>
+      <c r="C425" t="s">
+        <v>296</v>
+      </c>
+      <c r="D425">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1">
+        <v>50404</v>
+      </c>
+      <c r="B426" t="s">
+        <v>69</v>
+      </c>
+      <c r="C426" t="s">
+        <v>297</v>
+      </c>
+      <c r="D426">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1">
+        <v>50405</v>
+      </c>
+      <c r="B427" t="s">
+        <v>69</v>
+      </c>
+      <c r="C427" t="s">
+        <v>298</v>
+      </c>
+      <c r="D427">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1">
+        <v>50406</v>
+      </c>
+      <c r="B428" t="s">
+        <v>69</v>
+      </c>
+      <c r="C428" t="s">
+        <v>299</v>
+      </c>
+      <c r="D428">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1">
+        <v>50407</v>
+      </c>
+      <c r="B429" t="s">
+        <v>70</v>
+      </c>
+      <c r="C429" t="s">
+        <v>87</v>
+      </c>
+      <c r="D429">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1">
+        <v>50408</v>
+      </c>
+      <c r="B430" t="s">
+        <v>70</v>
+      </c>
+      <c r="C430" t="s">
+        <v>87</v>
+      </c>
+      <c r="D430">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1">
+        <v>50409</v>
+      </c>
+      <c r="B431" t="s">
+        <v>70</v>
+      </c>
+      <c r="C431" t="s">
+        <v>87</v>
+      </c>
+      <c r="D431">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1">
+        <v>50410</v>
+      </c>
+      <c r="B432" t="s">
+        <v>70</v>
+      </c>
+      <c r="C432" t="s">
+        <v>87</v>
+      </c>
+      <c r="D432">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="1">
+        <v>50411</v>
+      </c>
+      <c r="B433" t="s">
+        <v>70</v>
+      </c>
+      <c r="C433" t="s">
+        <v>87</v>
+      </c>
+      <c r="D433">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1">
+        <v>50412</v>
+      </c>
+      <c r="B434" t="s">
+        <v>70</v>
+      </c>
+      <c r="C434" t="s">
+        <v>87</v>
+      </c>
+      <c r="D434">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1">
+        <v>50413</v>
+      </c>
+      <c r="B435" t="s">
+        <v>70</v>
+      </c>
+      <c r="C435" t="s">
+        <v>87</v>
+      </c>
+      <c r="D435">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1">
+        <v>50414</v>
+      </c>
+      <c r="B436" t="s">
+        <v>70</v>
+      </c>
+      <c r="C436" t="s">
+        <v>87</v>
+      </c>
+      <c r="D436">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1">
+        <v>50415</v>
+      </c>
+      <c r="B437" t="s">
+        <v>70</v>
+      </c>
+      <c r="C437" t="s">
+        <v>87</v>
+      </c>
+      <c r="D437">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1">
+        <v>50416</v>
+      </c>
+      <c r="B438" t="s">
+        <v>70</v>
+      </c>
+      <c r="C438" t="s">
+        <v>87</v>
+      </c>
+      <c r="D438">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="1">
+        <v>50417</v>
+      </c>
+      <c r="B439" t="s">
+        <v>70</v>
+      </c>
+      <c r="C439" t="s">
+        <v>87</v>
+      </c>
+      <c r="D439">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1">
+        <v>50418</v>
+      </c>
+      <c r="B440" t="s">
+        <v>70</v>
+      </c>
+      <c r="C440" t="s">
+        <v>87</v>
+      </c>
+      <c r="D440">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1">
+        <v>50419</v>
+      </c>
+      <c r="B441" t="s">
+        <v>70</v>
+      </c>
+      <c r="C441" t="s">
+        <v>87</v>
+      </c>
+      <c r="D441">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1">
+        <v>50420</v>
+      </c>
+      <c r="B442" t="s">
+        <v>70</v>
+      </c>
+      <c r="C442" t="s">
+        <v>87</v>
+      </c>
+      <c r="D442">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1">
+        <v>50421</v>
+      </c>
+      <c r="B443" t="s">
+        <v>70</v>
+      </c>
+      <c r="C443" t="s">
+        <v>87</v>
+      </c>
+      <c r="D443">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1">
+        <v>50422</v>
+      </c>
+      <c r="B444" t="s">
+        <v>70</v>
+      </c>
+      <c r="C444" t="s">
+        <v>87</v>
+      </c>
+      <c r="D444">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1">
+        <v>50423</v>
+      </c>
+      <c r="B445" t="s">
+        <v>70</v>
+      </c>
+      <c r="C445" t="s">
+        <v>87</v>
+      </c>
+      <c r="D445">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1">
+        <v>50424</v>
+      </c>
+      <c r="B446" t="s">
+        <v>70</v>
+      </c>
+      <c r="C446" t="s">
+        <v>87</v>
+      </c>
+      <c r="D446">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1">
+        <v>50425</v>
+      </c>
+      <c r="B447" t="s">
+        <v>70</v>
+      </c>
+      <c r="C447" t="s">
+        <v>87</v>
+      </c>
+      <c r="D447">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="1">
+        <v>50426</v>
+      </c>
+      <c r="B448" t="s">
+        <v>70</v>
+      </c>
+      <c r="C448" t="s">
+        <v>87</v>
+      </c>
+      <c r="D448">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1">
+        <v>50427</v>
+      </c>
+      <c r="B449" t="s">
+        <v>70</v>
+      </c>
+      <c r="C449" t="s">
+        <v>87</v>
+      </c>
+      <c r="D449">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1">
+        <v>50428</v>
+      </c>
+      <c r="B450" t="s">
+        <v>70</v>
+      </c>
+      <c r="C450" t="s">
+        <v>87</v>
+      </c>
+      <c r="D450">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1">
+        <v>50429</v>
+      </c>
+      <c r="B451" t="s">
+        <v>70</v>
+      </c>
+      <c r="C451" t="s">
+        <v>87</v>
+      </c>
+      <c r="D451">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1">
+        <v>50430</v>
+      </c>
+      <c r="B452" t="s">
+        <v>70</v>
+      </c>
+      <c r="C452" t="s">
+        <v>87</v>
+      </c>
+      <c r="D452">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1">
+        <v>50431</v>
+      </c>
+      <c r="B453" t="s">
+        <v>70</v>
+      </c>
+      <c r="C453" t="s">
+        <v>87</v>
+      </c>
+      <c r="D453">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1">
+        <v>50432</v>
+      </c>
+      <c r="B454" t="s">
+        <v>70</v>
+      </c>
+      <c r="C454" t="s">
+        <v>87</v>
+      </c>
+      <c r="D454">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1">
+        <v>50433</v>
+      </c>
+      <c r="B455" t="s">
+        <v>70</v>
+      </c>
+      <c r="C455" t="s">
+        <v>87</v>
+      </c>
+      <c r="D455">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1">
+        <v>50434</v>
+      </c>
+      <c r="B456" t="s">
+        <v>71</v>
+      </c>
+      <c r="C456" t="s">
+        <v>300</v>
+      </c>
+      <c r="D456">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="1">
+        <v>50435</v>
+      </c>
+      <c r="B457" t="s">
+        <v>71</v>
+      </c>
+      <c r="C457" t="s">
+        <v>301</v>
+      </c>
+      <c r="D457">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1">
+        <v>50436</v>
+      </c>
+      <c r="B458" t="s">
+        <v>71</v>
+      </c>
+      <c r="C458" t="s">
+        <v>302</v>
+      </c>
+      <c r="D458">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1">
+        <v>50437</v>
+      </c>
+      <c r="B459" t="s">
+        <v>71</v>
+      </c>
+      <c r="C459" t="s">
+        <v>303</v>
+      </c>
+      <c r="D459">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1">
+        <v>50438</v>
+      </c>
+      <c r="B460" t="s">
+        <v>71</v>
+      </c>
+      <c r="C460" t="s">
+        <v>304</v>
+      </c>
+      <c r="D460">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1">
+        <v>50439</v>
+      </c>
+      <c r="B461" t="s">
+        <v>71</v>
+      </c>
+      <c r="C461" t="s">
+        <v>305</v>
+      </c>
+      <c r="D461">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1">
+        <v>50440</v>
+      </c>
+      <c r="B462" t="s">
+        <v>71</v>
+      </c>
+      <c r="C462" t="s">
+        <v>306</v>
+      </c>
+      <c r="D462">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1">
+        <v>50441</v>
+      </c>
+      <c r="B463" t="s">
+        <v>71</v>
+      </c>
+      <c r="C463" t="s">
+        <v>307</v>
+      </c>
+      <c r="D463">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1">
+        <v>50442</v>
+      </c>
+      <c r="B464" t="s">
+        <v>71</v>
+      </c>
+      <c r="C464" t="s">
+        <v>308</v>
+      </c>
+      <c r="D464">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1">
+        <v>50443</v>
+      </c>
+      <c r="B465" t="s">
+        <v>71</v>
+      </c>
+      <c r="C465" t="s">
+        <v>309</v>
+      </c>
+      <c r="D465">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="1">
+        <v>50444</v>
+      </c>
+      <c r="B466" t="s">
+        <v>71</v>
+      </c>
+      <c r="C466" t="s">
+        <v>310</v>
+      </c>
+      <c r="D466">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1">
+        <v>50445</v>
+      </c>
+      <c r="B467" t="s">
+        <v>71</v>
+      </c>
+      <c r="C467" t="s">
+        <v>311</v>
+      </c>
+      <c r="D467">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1">
+        <v>50446</v>
+      </c>
+      <c r="B468" t="s">
+        <v>71</v>
+      </c>
+      <c r="C468" t="s">
+        <v>312</v>
+      </c>
+      <c r="D468">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1">
+        <v>50447</v>
+      </c>
+      <c r="B469" t="s">
+        <v>71</v>
+      </c>
+      <c r="C469" t="s">
+        <v>313</v>
+      </c>
+      <c r="D469">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1">
+        <v>50448</v>
+      </c>
+      <c r="B470" t="s">
+        <v>72</v>
+      </c>
+      <c r="C470" t="s">
+        <v>87</v>
+      </c>
+      <c r="D470">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1">
+        <v>50449</v>
+      </c>
+      <c r="B471" t="s">
+        <v>72</v>
+      </c>
+      <c r="C471" t="s">
+        <v>87</v>
+      </c>
+      <c r="D471">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1">
+        <v>50450</v>
+      </c>
+      <c r="B472" t="s">
+        <v>72</v>
+      </c>
+      <c r="C472" t="s">
+        <v>87</v>
+      </c>
+      <c r="D472">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1">
+        <v>50451</v>
+      </c>
+      <c r="B473" t="s">
+        <v>72</v>
+      </c>
+      <c r="C473" t="s">
+        <v>87</v>
+      </c>
+      <c r="D473">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1">
+        <v>50452</v>
+      </c>
+      <c r="B474" t="s">
+        <v>72</v>
+      </c>
+      <c r="C474" t="s">
+        <v>87</v>
+      </c>
+      <c r="D474">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1">
+        <v>50453</v>
+      </c>
+      <c r="B475" t="s">
+        <v>72</v>
+      </c>
+      <c r="C475" t="s">
+        <v>87</v>
+      </c>
+      <c r="D475">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1">
+        <v>50454</v>
+      </c>
+      <c r="B476" t="s">
+        <v>72</v>
+      </c>
+      <c r="C476" t="s">
+        <v>87</v>
+      </c>
+      <c r="D476">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1">
+        <v>50455</v>
+      </c>
+      <c r="B477" t="s">
+        <v>72</v>
+      </c>
+      <c r="C477" t="s">
+        <v>87</v>
+      </c>
+      <c r="D477">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1">
+        <v>50456</v>
+      </c>
+      <c r="B478" t="s">
+        <v>72</v>
+      </c>
+      <c r="C478" t="s">
+        <v>87</v>
+      </c>
+      <c r="D478">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1">
+        <v>50457</v>
+      </c>
+      <c r="B479" t="s">
+        <v>72</v>
+      </c>
+      <c r="C479" t="s">
+        <v>87</v>
+      </c>
+      <c r="D479">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1">
+        <v>50458</v>
+      </c>
+      <c r="B480" t="s">
+        <v>72</v>
+      </c>
+      <c r="C480" t="s">
+        <v>87</v>
+      </c>
+      <c r="D480">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1">
+        <v>50459</v>
+      </c>
+      <c r="B481" t="s">
+        <v>72</v>
+      </c>
+      <c r="C481" t="s">
+        <v>87</v>
+      </c>
+      <c r="D481">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1">
+        <v>50460</v>
+      </c>
+      <c r="B482" t="s">
+        <v>72</v>
+      </c>
+      <c r="C482" t="s">
+        <v>87</v>
+      </c>
+      <c r="D482">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1">
+        <v>50461</v>
+      </c>
+      <c r="B483" t="s">
+        <v>72</v>
+      </c>
+      <c r="C483" t="s">
+        <v>87</v>
+      </c>
+      <c r="D483">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1">
+        <v>50462</v>
+      </c>
+      <c r="B484" t="s">
+        <v>72</v>
+      </c>
+      <c r="C484" t="s">
+        <v>87</v>
+      </c>
+      <c r="D484">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="1">
+        <v>50463</v>
+      </c>
+      <c r="B485" t="s">
+        <v>72</v>
+      </c>
+      <c r="C485" t="s">
+        <v>87</v>
+      </c>
+      <c r="D485">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="1">
+        <v>50464</v>
+      </c>
+      <c r="B486" t="s">
+        <v>72</v>
+      </c>
+      <c r="C486" t="s">
+        <v>87</v>
+      </c>
+      <c r="D486">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="1">
+        <v>50465</v>
+      </c>
+      <c r="B487" t="s">
+        <v>72</v>
+      </c>
+      <c r="C487" t="s">
+        <v>87</v>
+      </c>
+      <c r="D487">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1">
+        <v>50466</v>
+      </c>
+      <c r="B488" t="s">
+        <v>72</v>
+      </c>
+      <c r="C488" t="s">
+        <v>87</v>
+      </c>
+      <c r="D488">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="1">
+        <v>50467</v>
+      </c>
+      <c r="B489" t="s">
+        <v>66</v>
+      </c>
+      <c r="C489" t="s">
+        <v>87</v>
+      </c>
+      <c r="D489">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1">
+        <v>50468</v>
+      </c>
+      <c r="B490" t="s">
+        <v>66</v>
+      </c>
+      <c r="C490" t="s">
+        <v>87</v>
+      </c>
+      <c r="D490">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="1">
+        <v>50469</v>
+      </c>
+      <c r="B491" t="s">
+        <v>66</v>
+      </c>
+      <c r="C491" t="s">
+        <v>314</v>
+      </c>
+      <c r="D491">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="1">
+        <v>50470</v>
+      </c>
+      <c r="B492" t="s">
+        <v>66</v>
+      </c>
+      <c r="C492" t="s">
+        <v>315</v>
+      </c>
+      <c r="D492">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1">
+        <v>50471</v>
+      </c>
+      <c r="B493" t="s">
+        <v>66</v>
+      </c>
+      <c r="C493" t="s">
+        <v>316</v>
+      </c>
+      <c r="D493">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1">
+        <v>50472</v>
+      </c>
+      <c r="B494" t="s">
+        <v>66</v>
+      </c>
+      <c r="C494" t="s">
+        <v>317</v>
+      </c>
+      <c r="D494">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="1">
+        <v>50473</v>
+      </c>
+      <c r="B495" t="s">
+        <v>73</v>
+      </c>
+      <c r="C495" t="s">
+        <v>318</v>
+      </c>
+      <c r="D495">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="1">
+        <v>50474</v>
+      </c>
+      <c r="B496" t="s">
+        <v>74</v>
+      </c>
+      <c r="C496" t="s">
+        <v>319</v>
+      </c>
+      <c r="D496">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1">
+        <v>50475</v>
+      </c>
+      <c r="B497" t="s">
+        <v>74</v>
+      </c>
+      <c r="C497" t="s">
+        <v>320</v>
+      </c>
+      <c r="D497">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1">
+        <v>50476</v>
+      </c>
+      <c r="B498" t="s">
+        <v>75</v>
+      </c>
+      <c r="C498" t="s">
+        <v>321</v>
+      </c>
+      <c r="D498">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1">
+        <v>50477</v>
+      </c>
+      <c r="B499" t="s">
+        <v>76</v>
+      </c>
+      <c r="C499" t="s">
+        <v>322</v>
+      </c>
+      <c r="D499">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1">
+        <v>50478</v>
+      </c>
+      <c r="B500" t="s">
+        <v>77</v>
+      </c>
+      <c r="C500" t="s">
+        <v>323</v>
+      </c>
+      <c r="D500">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1">
+        <v>50479</v>
+      </c>
+      <c r="B501" t="s">
+        <v>78</v>
+      </c>
+      <c r="C501" t="s">
+        <v>324</v>
+      </c>
+      <c r="D501">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1">
+        <v>50480</v>
+      </c>
+      <c r="B502" t="s">
+        <v>78</v>
+      </c>
+      <c r="C502" t="s">
+        <v>325</v>
+      </c>
+      <c r="D502">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1">
+        <v>50481</v>
+      </c>
+      <c r="B503" t="s">
+        <v>78</v>
+      </c>
+      <c r="C503" t="s">
+        <v>326</v>
+      </c>
+      <c r="D503">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1">
+        <v>50482</v>
+      </c>
+      <c r="B504" t="s">
+        <v>78</v>
+      </c>
+      <c r="C504" t="s">
+        <v>327</v>
+      </c>
+      <c r="D504">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1">
+        <v>50483</v>
+      </c>
+      <c r="B505" t="s">
+        <v>78</v>
+      </c>
+      <c r="C505" t="s">
+        <v>328</v>
+      </c>
+      <c r="D505">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1">
+        <v>50484</v>
+      </c>
+      <c r="B506" t="s">
+        <v>78</v>
+      </c>
+      <c r="C506" t="s">
+        <v>329</v>
+      </c>
+      <c r="D506">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1">
+        <v>50485</v>
+      </c>
+      <c r="B507" t="s">
+        <v>79</v>
+      </c>
+      <c r="C507" t="s">
+        <v>330</v>
+      </c>
+      <c r="D507">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1">
+        <v>50486</v>
+      </c>
+      <c r="B508" t="s">
+        <v>79</v>
+      </c>
+      <c r="C508" t="s">
+        <v>331</v>
+      </c>
+      <c r="D508">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="1">
+        <v>50487</v>
+      </c>
+      <c r="B509" t="s">
+        <v>79</v>
+      </c>
+      <c r="C509" t="s">
+        <v>332</v>
+      </c>
+      <c r="D509">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="1">
+        <v>50488</v>
+      </c>
+      <c r="B510" t="s">
+        <v>79</v>
+      </c>
+      <c r="C510" t="s">
+        <v>93</v>
+      </c>
+      <c r="D510">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="1">
+        <v>50489</v>
+      </c>
+      <c r="B511" t="s">
+        <v>79</v>
+      </c>
+      <c r="C511" t="s">
+        <v>333</v>
+      </c>
+      <c r="D511">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1">
+        <v>50490</v>
+      </c>
+      <c r="B512" t="s">
+        <v>79</v>
+      </c>
+      <c r="C512" t="s">
+        <v>334</v>
+      </c>
+      <c r="D512">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="1">
+        <v>50491</v>
+      </c>
+      <c r="B513" t="s">
+        <v>79</v>
+      </c>
+      <c r="C513" t="s">
+        <v>335</v>
+      </c>
+      <c r="D513">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="1">
+        <v>50492</v>
+      </c>
+      <c r="B514" t="s">
+        <v>79</v>
+      </c>
+      <c r="C514" t="s">
+        <v>336</v>
+      </c>
+      <c r="D514">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1">
+        <v>50493</v>
+      </c>
+      <c r="B515" t="s">
+        <v>79</v>
+      </c>
+      <c r="C515" t="s">
+        <v>337</v>
+      </c>
+      <c r="D515">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="1">
+        <v>50494</v>
+      </c>
+      <c r="B516" t="s">
+        <v>79</v>
+      </c>
+      <c r="C516" t="s">
+        <v>338</v>
+      </c>
+      <c r="D516">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1">
+        <v>50495</v>
+      </c>
+      <c r="B517" t="s">
+        <v>79</v>
+      </c>
+      <c r="C517" t="s">
+        <v>339</v>
+      </c>
+      <c r="D517">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="1">
+        <v>50496</v>
+      </c>
+      <c r="B518" t="s">
+        <v>79</v>
+      </c>
+      <c r="C518" t="s">
+        <v>340</v>
+      </c>
+      <c r="D518">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="1">
+        <v>50497</v>
+      </c>
+      <c r="B519" t="s">
+        <v>79</v>
+      </c>
+      <c r="C519" t="s">
+        <v>330</v>
+      </c>
+      <c r="D519">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="1">
+        <v>50498</v>
+      </c>
+      <c r="B520" t="s">
+        <v>79</v>
+      </c>
+      <c r="C520" t="s">
+        <v>341</v>
+      </c>
+      <c r="D520">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="1">
+        <v>50499</v>
+      </c>
+      <c r="B521" t="s">
+        <v>80</v>
+      </c>
+      <c r="C521" t="s">
+        <v>182</v>
+      </c>
+      <c r="D521">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="1">
+        <v>50500</v>
+      </c>
+      <c r="B522" t="s">
+        <v>81</v>
+      </c>
+      <c r="C522" t="s">
+        <v>342</v>
+      </c>
+      <c r="D522">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="1">
+        <v>50501</v>
+      </c>
+      <c r="B523" t="s">
+        <v>82</v>
+      </c>
+      <c r="C523" t="s">
+        <v>343</v>
+      </c>
+      <c r="D523">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="1">
+        <v>50502</v>
+      </c>
+      <c r="B524" t="s">
+        <v>83</v>
+      </c>
+      <c r="C524" t="s">
+        <v>344</v>
+      </c>
+      <c r="D524">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="1">
+        <v>50503</v>
+      </c>
+      <c r="B525" t="s">
+        <v>83</v>
+      </c>
+      <c r="C525" t="s">
+        <v>345</v>
+      </c>
+      <c r="D525">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="1">
+        <v>50504</v>
+      </c>
+      <c r="B526" t="s">
+        <v>83</v>
+      </c>
+      <c r="C526" t="s">
+        <v>346</v>
+      </c>
+      <c r="D526">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="1">
+        <v>50505</v>
+      </c>
+      <c r="B527" t="s">
+        <v>83</v>
+      </c>
+      <c r="C527" t="s">
+        <v>347</v>
+      </c>
+      <c r="D527">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="1">
+        <v>50506</v>
+      </c>
+      <c r="B528" t="s">
+        <v>83</v>
+      </c>
+      <c r="C528" t="s">
+        <v>348</v>
+      </c>
+      <c r="D528">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="1">
+        <v>50507</v>
+      </c>
+      <c r="B529" t="s">
+        <v>83</v>
+      </c>
+      <c r="C529" t="s">
+        <v>349</v>
+      </c>
+      <c r="D529">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="1">
+        <v>50508</v>
+      </c>
+      <c r="B530" t="s">
+        <v>83</v>
+      </c>
+      <c r="C530" t="s">
+        <v>350</v>
+      </c>
+      <c r="D530">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="1">
+        <v>50509</v>
+      </c>
+      <c r="B531" t="s">
+        <v>83</v>
+      </c>
+      <c r="C531" t="s">
+        <v>351</v>
+      </c>
+      <c r="D531">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="1">
+        <v>50510</v>
+      </c>
+      <c r="B532" t="s">
+        <v>83</v>
+      </c>
+      <c r="C532" t="s">
+        <v>352</v>
+      </c>
+      <c r="D532">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="1">
+        <v>50511</v>
+      </c>
+      <c r="B533" t="s">
+        <v>83</v>
+      </c>
+      <c r="C533" t="s">
+        <v>353</v>
+      </c>
+      <c r="D533">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="1">
+        <v>50512</v>
+      </c>
+      <c r="B534" t="s">
+        <v>83</v>
+      </c>
+      <c r="C534" t="s">
+        <v>354</v>
+      </c>
+      <c r="D534">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="1">
+        <v>50513</v>
+      </c>
+      <c r="B535" t="s">
+        <v>83</v>
+      </c>
+      <c r="C535" t="s">
+        <v>355</v>
+      </c>
+      <c r="D535">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="1">
+        <v>50514</v>
+      </c>
+      <c r="B536" t="s">
+        <v>84</v>
+      </c>
+      <c r="C536" t="s">
+        <v>356</v>
+      </c>
+      <c r="D536">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="1">
+        <v>50515</v>
+      </c>
+      <c r="B537" t="s">
+        <v>36</v>
+      </c>
+      <c r="C537" t="s">
+        <v>357</v>
+      </c>
+      <c r="D537">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="1">
+        <v>50516</v>
+      </c>
+      <c r="B538" t="s">
+        <v>36</v>
+      </c>
+      <c r="C538" t="s">
+        <v>358</v>
+      </c>
+      <c r="D538">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="1">
+        <v>50517</v>
+      </c>
+      <c r="B539" t="s">
+        <v>85</v>
+      </c>
+      <c r="C539" t="s">
+        <v>359</v>
+      </c>
+      <c r="D539">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="1">
+        <v>50518</v>
+      </c>
+      <c r="B540" t="s">
+        <v>86</v>
+      </c>
+      <c r="C540" t="s">
+        <v>360</v>
+      </c>
+      <c r="D540">
+        <v>1917</v>
       </c>
     </row>
   </sheetData>
